--- a/20_営業/07_会計/BR100/ERP_T_BR100_CFO_AP_2-1_付加フレックスフィールドの管理.xlsx
+++ b/20_営業/07_会計/BR100/ERP_T_BR100_CFO_AP_2-1_付加フレックスフィールドの管理.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\92_分社化\10_設計フェーズ\10_成果物\【触らないでください】40_その他\ERP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Acomsv01\障害対応\E_本稼動_20201～20300\E_本稼動_20247_【会計】基幹システムバージョンアップ（会計領域　AP部門入力）\20_成果物\05.BR100\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10035" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="10032"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="2" r:id="rId1"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="403">
   <si>
     <r>
       <rPr>
@@ -2255,6 +2255,20 @@
   </si>
   <si>
     <t>「編集(鉛筆マーク)」ボタンをクリック（もしくは アクション＞編集）</t>
+  </si>
+  <si>
+    <t>SCSK 細沼</t>
+    <rPh sb="5" eb="7">
+      <t>ホソヌマ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>E_本稼動_20247 STEP4 AP部門入力対応</t>
+    <rPh sb="20" eb="24">
+      <t>ブモンニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
@@ -2963,7 +2977,7 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3161,18 +3175,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3277,20 +3279,62 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="25" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="8" borderId="14" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="15" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="9" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="18" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3301,11 +3345,8 @@
     <xf numFmtId="0" fontId="22" fillId="8" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="20" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="22" fillId="8" borderId="18" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3315,6 +3356,56 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="18" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3352,99 +3443,40 @@
     <xf numFmtId="0" fontId="23" fillId="8" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="18" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="20" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="18" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="25" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="8" borderId="14" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="15" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="9" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3456,13 +3488,13 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3709,8 +3741,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="367393" y="8131629"/>
-          <a:ext cx="13525500" cy="7265542"/>
+          <a:off x="370114" y="7979229"/>
+          <a:ext cx="13487400" cy="6971628"/>
           <a:chOff x="370114" y="5595257"/>
           <a:chExt cx="11647715" cy="5795971"/>
         </a:xfrm>
@@ -8315,1255 +8347,1183 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.9" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="10.95" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="120"/>
+    <col min="1" max="16384" width="2.59765625" style="120"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="10.9" customHeight="1" thickBot="1"/>
-    <row r="2" spans="1:37" ht="10.9" customHeight="1" thickBot="1">
-      <c r="A2" s="212" t="s">
+    <row r="1" spans="1:37" ht="10.95" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:37" ht="10.95" customHeight="1" thickBot="1">
+      <c r="A2" s="171" t="s">
         <v>294</v>
       </c>
-      <c r="B2" s="213"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="212" t="s">
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="171" t="s">
         <v>295</v>
       </c>
-      <c r="G2" s="213"/>
-      <c r="H2" s="213"/>
-      <c r="I2" s="214"/>
-      <c r="J2" s="215" t="s">
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="174" t="s">
         <v>296</v>
       </c>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="215"/>
-      <c r="O2" s="215"/>
-      <c r="P2" s="215"/>
-      <c r="Q2" s="215"/>
-      <c r="R2" s="215"/>
-      <c r="S2" s="215"/>
-      <c r="T2" s="215"/>
-      <c r="U2" s="215"/>
-      <c r="V2" s="215"/>
-      <c r="W2" s="215"/>
-      <c r="X2" s="215"/>
-      <c r="Y2" s="215"/>
-      <c r="Z2" s="215"/>
-      <c r="AA2" s="215"/>
-      <c r="AB2" s="215"/>
-      <c r="AC2" s="215"/>
-      <c r="AD2" s="215"/>
-      <c r="AE2" s="215"/>
-      <c r="AF2" s="215"/>
-      <c r="AG2" s="215"/>
-      <c r="AH2" s="215"/>
-      <c r="AI2" s="215"/>
-      <c r="AJ2" s="215"/>
-      <c r="AK2" s="216"/>
-    </row>
-    <row r="3" spans="1:37" ht="10.9" customHeight="1">
-      <c r="A3" s="217">
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="174"/>
+      <c r="U2" s="174"/>
+      <c r="V2" s="174"/>
+      <c r="W2" s="174"/>
+      <c r="X2" s="174"/>
+      <c r="Y2" s="174"/>
+      <c r="Z2" s="174"/>
+      <c r="AA2" s="174"/>
+      <c r="AB2" s="174"/>
+      <c r="AC2" s="174"/>
+      <c r="AD2" s="174"/>
+      <c r="AE2" s="174"/>
+      <c r="AF2" s="174"/>
+      <c r="AG2" s="174"/>
+      <c r="AH2" s="174"/>
+      <c r="AI2" s="174"/>
+      <c r="AJ2" s="174"/>
+      <c r="AK2" s="175"/>
+    </row>
+    <row r="3" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A3" s="176">
         <v>44915</v>
       </c>
-      <c r="B3" s="218"/>
-      <c r="C3" s="218"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="220" t="s">
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="179" t="s">
         <v>297</v>
       </c>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="222"/>
-      <c r="J3" s="223" t="s">
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="182" t="s">
         <v>298</v>
       </c>
-      <c r="K3" s="218"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="218"/>
-      <c r="O3" s="218"/>
-      <c r="P3" s="218"/>
-      <c r="Q3" s="218"/>
-      <c r="R3" s="218"/>
-      <c r="S3" s="218"/>
-      <c r="T3" s="218"/>
-      <c r="U3" s="218"/>
-      <c r="V3" s="218"/>
-      <c r="W3" s="218"/>
-      <c r="X3" s="218"/>
-      <c r="Y3" s="218"/>
-      <c r="Z3" s="218"/>
-      <c r="AA3" s="218"/>
-      <c r="AB3" s="218"/>
-      <c r="AC3" s="218"/>
-      <c r="AD3" s="218"/>
-      <c r="AE3" s="218"/>
-      <c r="AF3" s="218"/>
-      <c r="AG3" s="218"/>
-      <c r="AH3" s="218"/>
-      <c r="AI3" s="218"/>
-      <c r="AJ3" s="218"/>
-      <c r="AK3" s="219"/>
-    </row>
-    <row r="4" spans="1:37" ht="10.9" customHeight="1">
-      <c r="A4" s="205">
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
+      <c r="M3" s="177"/>
+      <c r="N3" s="177"/>
+      <c r="O3" s="177"/>
+      <c r="P3" s="177"/>
+      <c r="Q3" s="177"/>
+      <c r="R3" s="177"/>
+      <c r="S3" s="177"/>
+      <c r="T3" s="177"/>
+      <c r="U3" s="177"/>
+      <c r="V3" s="177"/>
+      <c r="W3" s="177"/>
+      <c r="X3" s="177"/>
+      <c r="Y3" s="177"/>
+      <c r="Z3" s="177"/>
+      <c r="AA3" s="177"/>
+      <c r="AB3" s="177"/>
+      <c r="AC3" s="177"/>
+      <c r="AD3" s="177"/>
+      <c r="AE3" s="177"/>
+      <c r="AF3" s="177"/>
+      <c r="AG3" s="177"/>
+      <c r="AH3" s="177"/>
+      <c r="AI3" s="177"/>
+      <c r="AJ3" s="177"/>
+      <c r="AK3" s="178"/>
+    </row>
+    <row r="4" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A4" s="183">
         <v>44998</v>
       </c>
-      <c r="B4" s="206"/>
-      <c r="C4" s="206"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="176" t="s">
+      <c r="B4" s="184"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="186" t="s">
         <v>297</v>
       </c>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="178"/>
-      <c r="J4" s="208" t="s">
+      <c r="G4" s="187"/>
+      <c r="H4" s="187"/>
+      <c r="I4" s="188"/>
+      <c r="J4" s="189" t="s">
         <v>304</v>
       </c>
-      <c r="K4" s="206"/>
-      <c r="L4" s="206"/>
-      <c r="M4" s="206"/>
-      <c r="N4" s="206"/>
-      <c r="O4" s="206"/>
-      <c r="P4" s="206"/>
-      <c r="Q4" s="206"/>
-      <c r="R4" s="206"/>
-      <c r="S4" s="206"/>
-      <c r="T4" s="206"/>
-      <c r="U4" s="206"/>
-      <c r="V4" s="206"/>
-      <c r="W4" s="206"/>
-      <c r="X4" s="206"/>
-      <c r="Y4" s="206"/>
-      <c r="Z4" s="206"/>
-      <c r="AA4" s="206"/>
-      <c r="AB4" s="206"/>
-      <c r="AC4" s="206"/>
-      <c r="AD4" s="206"/>
-      <c r="AE4" s="206"/>
-      <c r="AF4" s="206"/>
-      <c r="AG4" s="206"/>
-      <c r="AH4" s="206"/>
-      <c r="AI4" s="206"/>
-      <c r="AJ4" s="206"/>
-      <c r="AK4" s="207"/>
-    </row>
-    <row r="5" spans="1:37" ht="23.45" customHeight="1">
-      <c r="A5" s="181">
+      <c r="K4" s="184"/>
+      <c r="L4" s="184"/>
+      <c r="M4" s="184"/>
+      <c r="N4" s="184"/>
+      <c r="O4" s="184"/>
+      <c r="P4" s="184"/>
+      <c r="Q4" s="184"/>
+      <c r="R4" s="184"/>
+      <c r="S4" s="184"/>
+      <c r="T4" s="184"/>
+      <c r="U4" s="184"/>
+      <c r="V4" s="184"/>
+      <c r="W4" s="184"/>
+      <c r="X4" s="184"/>
+      <c r="Y4" s="184"/>
+      <c r="Z4" s="184"/>
+      <c r="AA4" s="184"/>
+      <c r="AB4" s="184"/>
+      <c r="AC4" s="184"/>
+      <c r="AD4" s="184"/>
+      <c r="AE4" s="184"/>
+      <c r="AF4" s="184"/>
+      <c r="AG4" s="184"/>
+      <c r="AH4" s="184"/>
+      <c r="AI4" s="184"/>
+      <c r="AJ4" s="184"/>
+      <c r="AK4" s="185"/>
+    </row>
+    <row r="5" spans="1:37" ht="23.4" customHeight="1">
+      <c r="A5" s="190">
         <v>45098</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="183"/>
-      <c r="F5" s="176" t="s">
+      <c r="B5" s="191"/>
+      <c r="C5" s="191"/>
+      <c r="D5" s="191"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="186" t="s">
         <v>297</v>
       </c>
-      <c r="G5" s="177"/>
-      <c r="H5" s="177"/>
-      <c r="I5" s="178"/>
-      <c r="J5" s="209" t="s">
+      <c r="G5" s="187"/>
+      <c r="H5" s="187"/>
+      <c r="I5" s="188"/>
+      <c r="J5" s="193" t="s">
         <v>305</v>
       </c>
-      <c r="K5" s="210"/>
-      <c r="L5" s="210"/>
-      <c r="M5" s="210"/>
-      <c r="N5" s="210"/>
-      <c r="O5" s="210"/>
-      <c r="P5" s="210"/>
-      <c r="Q5" s="210"/>
-      <c r="R5" s="210"/>
-      <c r="S5" s="210"/>
-      <c r="T5" s="210"/>
-      <c r="U5" s="210"/>
-      <c r="V5" s="210"/>
-      <c r="W5" s="210"/>
-      <c r="X5" s="210"/>
-      <c r="Y5" s="210"/>
-      <c r="Z5" s="210"/>
-      <c r="AA5" s="210"/>
-      <c r="AB5" s="210"/>
-      <c r="AC5" s="210"/>
-      <c r="AD5" s="210"/>
-      <c r="AE5" s="210"/>
-      <c r="AF5" s="210"/>
-      <c r="AG5" s="210"/>
-      <c r="AH5" s="210"/>
-      <c r="AI5" s="210"/>
-      <c r="AJ5" s="210"/>
-      <c r="AK5" s="211"/>
-    </row>
-    <row r="6" spans="1:37" ht="10.9" customHeight="1">
-      <c r="A6" s="196">
+      <c r="K5" s="194"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="194"/>
+      <c r="N5" s="194"/>
+      <c r="O5" s="194"/>
+      <c r="P5" s="194"/>
+      <c r="Q5" s="194"/>
+      <c r="R5" s="194"/>
+      <c r="S5" s="194"/>
+      <c r="T5" s="194"/>
+      <c r="U5" s="194"/>
+      <c r="V5" s="194"/>
+      <c r="W5" s="194"/>
+      <c r="X5" s="194"/>
+      <c r="Y5" s="194"/>
+      <c r="Z5" s="194"/>
+      <c r="AA5" s="194"/>
+      <c r="AB5" s="194"/>
+      <c r="AC5" s="194"/>
+      <c r="AD5" s="194"/>
+      <c r="AE5" s="194"/>
+      <c r="AF5" s="194"/>
+      <c r="AG5" s="194"/>
+      <c r="AH5" s="194"/>
+      <c r="AI5" s="194"/>
+      <c r="AJ5" s="194"/>
+      <c r="AK5" s="195"/>
+    </row>
+    <row r="6" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A6" s="183">
         <v>45183</v>
       </c>
-      <c r="B6" s="197"/>
-      <c r="C6" s="197"/>
-      <c r="D6" s="197"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="199" t="s">
+      <c r="B6" s="184"/>
+      <c r="C6" s="184"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="185"/>
+      <c r="F6" s="196" t="s">
         <v>315</v>
       </c>
-      <c r="G6" s="200"/>
-      <c r="H6" s="200"/>
-      <c r="I6" s="201"/>
-      <c r="J6" s="202" t="s">
+      <c r="G6" s="197"/>
+      <c r="H6" s="197"/>
+      <c r="I6" s="198"/>
+      <c r="J6" s="199" t="s">
         <v>326</v>
       </c>
-      <c r="K6" s="203"/>
-      <c r="L6" s="203"/>
-      <c r="M6" s="203"/>
-      <c r="N6" s="203"/>
-      <c r="O6" s="203"/>
-      <c r="P6" s="203"/>
-      <c r="Q6" s="203"/>
-      <c r="R6" s="203"/>
-      <c r="S6" s="203"/>
-      <c r="T6" s="203"/>
-      <c r="U6" s="203"/>
-      <c r="V6" s="203"/>
-      <c r="W6" s="203"/>
-      <c r="X6" s="203"/>
-      <c r="Y6" s="203"/>
-      <c r="Z6" s="203"/>
-      <c r="AA6" s="203"/>
-      <c r="AB6" s="203"/>
-      <c r="AC6" s="203"/>
-      <c r="AD6" s="203"/>
-      <c r="AE6" s="203"/>
-      <c r="AF6" s="203"/>
-      <c r="AG6" s="203"/>
-      <c r="AH6" s="203"/>
-      <c r="AI6" s="203"/>
-      <c r="AJ6" s="203"/>
-      <c r="AK6" s="204"/>
-    </row>
-    <row r="7" spans="1:37" ht="10.9" customHeight="1">
-      <c r="A7" s="181"/>
-      <c r="B7" s="182"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="184"/>
-      <c r="K7" s="185"/>
-      <c r="L7" s="185"/>
-      <c r="M7" s="185"/>
-      <c r="N7" s="185"/>
-      <c r="O7" s="185"/>
-      <c r="P7" s="185"/>
-      <c r="Q7" s="185"/>
-      <c r="R7" s="185"/>
-      <c r="S7" s="185"/>
-      <c r="T7" s="185"/>
-      <c r="U7" s="185"/>
-      <c r="V7" s="185"/>
-      <c r="W7" s="185"/>
-      <c r="X7" s="185"/>
-      <c r="Y7" s="185"/>
-      <c r="Z7" s="185"/>
-      <c r="AA7" s="185"/>
-      <c r="AB7" s="185"/>
-      <c r="AC7" s="185"/>
-      <c r="AD7" s="185"/>
-      <c r="AE7" s="185"/>
-      <c r="AF7" s="185"/>
-      <c r="AG7" s="185"/>
-      <c r="AH7" s="185"/>
-      <c r="AI7" s="185"/>
-      <c r="AJ7" s="185"/>
-      <c r="AK7" s="186"/>
-    </row>
-    <row r="8" spans="1:37" ht="10.9" customHeight="1">
-      <c r="A8" s="181"/>
-      <c r="B8" s="182"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="176"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="184"/>
-      <c r="K8" s="185"/>
-      <c r="L8" s="185"/>
-      <c r="M8" s="185"/>
-      <c r="N8" s="185"/>
-      <c r="O8" s="185"/>
-      <c r="P8" s="185"/>
-      <c r="Q8" s="185"/>
-      <c r="R8" s="185"/>
-      <c r="S8" s="185"/>
-      <c r="T8" s="185"/>
-      <c r="U8" s="185"/>
-      <c r="V8" s="185"/>
-      <c r="W8" s="185"/>
-      <c r="X8" s="185"/>
-      <c r="Y8" s="185"/>
-      <c r="Z8" s="185"/>
-      <c r="AA8" s="185"/>
-      <c r="AB8" s="185"/>
-      <c r="AC8" s="185"/>
-      <c r="AD8" s="185"/>
-      <c r="AE8" s="185"/>
-      <c r="AF8" s="185"/>
-      <c r="AG8" s="185"/>
-      <c r="AH8" s="185"/>
-      <c r="AI8" s="185"/>
-      <c r="AJ8" s="185"/>
-      <c r="AK8" s="186"/>
-    </row>
-    <row r="9" spans="1:37" ht="10.9" customHeight="1">
-      <c r="A9" s="187"/>
-      <c r="B9" s="188"/>
-      <c r="C9" s="188"/>
-      <c r="D9" s="188"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="191"/>
-      <c r="H9" s="191"/>
-      <c r="I9" s="192"/>
-      <c r="J9" s="193"/>
-      <c r="K9" s="194"/>
-      <c r="L9" s="194"/>
-      <c r="M9" s="194"/>
-      <c r="N9" s="194"/>
-      <c r="O9" s="194"/>
-      <c r="P9" s="194"/>
-      <c r="Q9" s="194"/>
-      <c r="R9" s="194"/>
-      <c r="S9" s="194"/>
-      <c r="T9" s="194"/>
-      <c r="U9" s="194"/>
-      <c r="V9" s="194"/>
-      <c r="W9" s="194"/>
-      <c r="X9" s="194"/>
-      <c r="Y9" s="194"/>
-      <c r="Z9" s="194"/>
-      <c r="AA9" s="194"/>
-      <c r="AB9" s="194"/>
-      <c r="AC9" s="194"/>
-      <c r="AD9" s="194"/>
-      <c r="AE9" s="194"/>
-      <c r="AF9" s="194"/>
-      <c r="AG9" s="194"/>
-      <c r="AH9" s="194"/>
-      <c r="AI9" s="194"/>
-      <c r="AJ9" s="194"/>
-      <c r="AK9" s="195"/>
-    </row>
-    <row r="10" spans="1:37" ht="10.9" customHeight="1">
-      <c r="A10" s="181"/>
-      <c r="B10" s="182"/>
-      <c r="C10" s="182"/>
-      <c r="D10" s="182"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="176"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="184"/>
-      <c r="K10" s="185"/>
-      <c r="L10" s="185"/>
-      <c r="M10" s="185"/>
-      <c r="N10" s="185"/>
-      <c r="O10" s="185"/>
-      <c r="P10" s="185"/>
-      <c r="Q10" s="185"/>
-      <c r="R10" s="185"/>
-      <c r="S10" s="185"/>
-      <c r="T10" s="185"/>
-      <c r="U10" s="185"/>
-      <c r="V10" s="185"/>
-      <c r="W10" s="185"/>
-      <c r="X10" s="185"/>
-      <c r="Y10" s="185"/>
-      <c r="Z10" s="185"/>
-      <c r="AA10" s="185"/>
-      <c r="AB10" s="185"/>
-      <c r="AC10" s="185"/>
-      <c r="AD10" s="185"/>
-      <c r="AE10" s="185"/>
-      <c r="AF10" s="185"/>
-      <c r="AG10" s="185"/>
-      <c r="AH10" s="185"/>
-      <c r="AI10" s="185"/>
-      <c r="AJ10" s="185"/>
-      <c r="AK10" s="186"/>
-    </row>
-    <row r="11" spans="1:37" ht="10.9" customHeight="1">
-      <c r="A11" s="176"/>
-      <c r="B11" s="177"/>
-      <c r="C11" s="177"/>
-      <c r="D11" s="177"/>
-      <c r="E11" s="178"/>
-      <c r="F11" s="176"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="179"/>
-      <c r="L11" s="179"/>
-      <c r="M11" s="179"/>
-      <c r="N11" s="179"/>
-      <c r="O11" s="179"/>
-      <c r="P11" s="179"/>
-      <c r="Q11" s="179"/>
-      <c r="R11" s="179"/>
-      <c r="S11" s="179"/>
-      <c r="T11" s="179"/>
-      <c r="U11" s="179"/>
-      <c r="V11" s="179"/>
-      <c r="W11" s="179"/>
-      <c r="X11" s="179"/>
-      <c r="Y11" s="179"/>
-      <c r="Z11" s="179"/>
-      <c r="AA11" s="179"/>
-      <c r="AB11" s="179"/>
-      <c r="AC11" s="179"/>
-      <c r="AD11" s="179"/>
-      <c r="AE11" s="179"/>
-      <c r="AF11" s="179"/>
-      <c r="AG11" s="179"/>
-      <c r="AH11" s="179"/>
-      <c r="AI11" s="179"/>
-      <c r="AJ11" s="179"/>
-      <c r="AK11" s="180"/>
-    </row>
-    <row r="12" spans="1:37" ht="10.9" customHeight="1">
-      <c r="A12" s="176"/>
-      <c r="B12" s="177"/>
-      <c r="C12" s="177"/>
-      <c r="D12" s="177"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="176"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="179"/>
-      <c r="K12" s="179"/>
-      <c r="L12" s="179"/>
-      <c r="M12" s="179"/>
-      <c r="N12" s="179"/>
-      <c r="O12" s="179"/>
-      <c r="P12" s="179"/>
-      <c r="Q12" s="179"/>
-      <c r="R12" s="179"/>
-      <c r="S12" s="179"/>
-      <c r="T12" s="179"/>
-      <c r="U12" s="179"/>
-      <c r="V12" s="179"/>
-      <c r="W12" s="179"/>
-      <c r="X12" s="179"/>
-      <c r="Y12" s="179"/>
-      <c r="Z12" s="179"/>
-      <c r="AA12" s="179"/>
-      <c r="AB12" s="179"/>
-      <c r="AC12" s="179"/>
-      <c r="AD12" s="179"/>
-      <c r="AE12" s="179"/>
-      <c r="AF12" s="179"/>
-      <c r="AG12" s="179"/>
-      <c r="AH12" s="179"/>
-      <c r="AI12" s="179"/>
-      <c r="AJ12" s="179"/>
-      <c r="AK12" s="180"/>
-    </row>
-    <row r="13" spans="1:37" ht="10.9" customHeight="1">
-      <c r="A13" s="176"/>
-      <c r="B13" s="177"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="179"/>
-      <c r="K13" s="179"/>
-      <c r="L13" s="179"/>
-      <c r="M13" s="179"/>
-      <c r="N13" s="179"/>
-      <c r="O13" s="179"/>
-      <c r="P13" s="179"/>
-      <c r="Q13" s="179"/>
-      <c r="R13" s="179"/>
-      <c r="S13" s="179"/>
-      <c r="T13" s="179"/>
-      <c r="U13" s="179"/>
-      <c r="V13" s="179"/>
-      <c r="W13" s="179"/>
-      <c r="X13" s="179"/>
-      <c r="Y13" s="179"/>
-      <c r="Z13" s="179"/>
-      <c r="AA13" s="179"/>
-      <c r="AB13" s="179"/>
-      <c r="AC13" s="179"/>
-      <c r="AD13" s="179"/>
-      <c r="AE13" s="179"/>
-      <c r="AF13" s="179"/>
-      <c r="AG13" s="179"/>
-      <c r="AH13" s="179"/>
-      <c r="AI13" s="179"/>
-      <c r="AJ13" s="179"/>
-      <c r="AK13" s="180"/>
-    </row>
-    <row r="14" spans="1:37" ht="10.9" customHeight="1">
-      <c r="A14" s="176"/>
-      <c r="B14" s="177"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="176"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="179"/>
-      <c r="K14" s="179"/>
-      <c r="L14" s="179"/>
-      <c r="M14" s="179"/>
-      <c r="N14" s="179"/>
-      <c r="O14" s="179"/>
-      <c r="P14" s="179"/>
-      <c r="Q14" s="179"/>
-      <c r="R14" s="179"/>
-      <c r="S14" s="179"/>
-      <c r="T14" s="179"/>
-      <c r="U14" s="179"/>
-      <c r="V14" s="179"/>
-      <c r="W14" s="179"/>
-      <c r="X14" s="179"/>
-      <c r="Y14" s="179"/>
-      <c r="Z14" s="179"/>
-      <c r="AA14" s="179"/>
-      <c r="AB14" s="179"/>
-      <c r="AC14" s="179"/>
-      <c r="AD14" s="179"/>
-      <c r="AE14" s="179"/>
-      <c r="AF14" s="179"/>
-      <c r="AG14" s="179"/>
-      <c r="AH14" s="179"/>
-      <c r="AI14" s="179"/>
-      <c r="AJ14" s="179"/>
-      <c r="AK14" s="180"/>
-    </row>
-    <row r="15" spans="1:37" ht="10.9" customHeight="1">
-      <c r="A15" s="176"/>
-      <c r="B15" s="177"/>
-      <c r="C15" s="177"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="176"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="179"/>
-      <c r="K15" s="179"/>
-      <c r="L15" s="179"/>
-      <c r="M15" s="179"/>
-      <c r="N15" s="179"/>
-      <c r="O15" s="179"/>
-      <c r="P15" s="179"/>
-      <c r="Q15" s="179"/>
-      <c r="R15" s="179"/>
-      <c r="S15" s="179"/>
-      <c r="T15" s="179"/>
-      <c r="U15" s="179"/>
-      <c r="V15" s="179"/>
-      <c r="W15" s="179"/>
-      <c r="X15" s="179"/>
-      <c r="Y15" s="179"/>
-      <c r="Z15" s="179"/>
-      <c r="AA15" s="179"/>
-      <c r="AB15" s="179"/>
-      <c r="AC15" s="179"/>
-      <c r="AD15" s="179"/>
-      <c r="AE15" s="179"/>
-      <c r="AF15" s="179"/>
-      <c r="AG15" s="179"/>
-      <c r="AH15" s="179"/>
-      <c r="AI15" s="179"/>
-      <c r="AJ15" s="179"/>
-      <c r="AK15" s="180"/>
-    </row>
-    <row r="16" spans="1:37" ht="10.9" customHeight="1">
-      <c r="A16" s="176"/>
-      <c r="B16" s="177"/>
-      <c r="C16" s="177"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="176"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="179"/>
-      <c r="K16" s="179"/>
-      <c r="L16" s="179"/>
-      <c r="M16" s="179"/>
-      <c r="N16" s="179"/>
-      <c r="O16" s="179"/>
-      <c r="P16" s="179"/>
-      <c r="Q16" s="179"/>
-      <c r="R16" s="179"/>
-      <c r="S16" s="179"/>
-      <c r="T16" s="179"/>
-      <c r="U16" s="179"/>
-      <c r="V16" s="179"/>
-      <c r="W16" s="179"/>
-      <c r="X16" s="179"/>
-      <c r="Y16" s="179"/>
-      <c r="Z16" s="179"/>
-      <c r="AA16" s="179"/>
-      <c r="AB16" s="179"/>
-      <c r="AC16" s="179"/>
-      <c r="AD16" s="179"/>
-      <c r="AE16" s="179"/>
-      <c r="AF16" s="179"/>
-      <c r="AG16" s="179"/>
-      <c r="AH16" s="179"/>
-      <c r="AI16" s="179"/>
-      <c r="AJ16" s="179"/>
-      <c r="AK16" s="180"/>
-    </row>
-    <row r="17" spans="1:37" ht="10.9" customHeight="1">
-      <c r="A17" s="176"/>
-      <c r="B17" s="177"/>
-      <c r="C17" s="177"/>
-      <c r="D17" s="177"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="177"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="179"/>
-      <c r="K17" s="179"/>
-      <c r="L17" s="179"/>
-      <c r="M17" s="179"/>
-      <c r="N17" s="179"/>
-      <c r="O17" s="179"/>
-      <c r="P17" s="179"/>
-      <c r="Q17" s="179"/>
-      <c r="R17" s="179"/>
-      <c r="S17" s="179"/>
-      <c r="T17" s="179"/>
-      <c r="U17" s="179"/>
-      <c r="V17" s="179"/>
-      <c r="W17" s="179"/>
-      <c r="X17" s="179"/>
-      <c r="Y17" s="179"/>
-      <c r="Z17" s="179"/>
-      <c r="AA17" s="179"/>
-      <c r="AB17" s="179"/>
-      <c r="AC17" s="179"/>
-      <c r="AD17" s="179"/>
-      <c r="AE17" s="179"/>
-      <c r="AF17" s="179"/>
-      <c r="AG17" s="179"/>
-      <c r="AH17" s="179"/>
-      <c r="AI17" s="179"/>
-      <c r="AJ17" s="179"/>
-      <c r="AK17" s="180"/>
-    </row>
-    <row r="18" spans="1:37" ht="10.9" customHeight="1">
-      <c r="A18" s="176"/>
-      <c r="B18" s="177"/>
-      <c r="C18" s="177"/>
-      <c r="D18" s="177"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="177"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="179"/>
-      <c r="K18" s="179"/>
-      <c r="L18" s="179"/>
-      <c r="M18" s="179"/>
-      <c r="N18" s="179"/>
-      <c r="O18" s="179"/>
-      <c r="P18" s="179"/>
-      <c r="Q18" s="179"/>
-      <c r="R18" s="179"/>
-      <c r="S18" s="179"/>
-      <c r="T18" s="179"/>
-      <c r="U18" s="179"/>
-      <c r="V18" s="179"/>
-      <c r="W18" s="179"/>
-      <c r="X18" s="179"/>
-      <c r="Y18" s="179"/>
-      <c r="Z18" s="179"/>
-      <c r="AA18" s="179"/>
-      <c r="AB18" s="179"/>
-      <c r="AC18" s="179"/>
-      <c r="AD18" s="179"/>
-      <c r="AE18" s="179"/>
-      <c r="AF18" s="179"/>
-      <c r="AG18" s="179"/>
-      <c r="AH18" s="179"/>
-      <c r="AI18" s="179"/>
-      <c r="AJ18" s="179"/>
-      <c r="AK18" s="180"/>
-    </row>
-    <row r="19" spans="1:37" ht="10.9" customHeight="1">
-      <c r="A19" s="176"/>
-      <c r="B19" s="177"/>
-      <c r="C19" s="177"/>
-      <c r="D19" s="177"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="176"/>
-      <c r="G19" s="177"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="179"/>
-      <c r="K19" s="179"/>
-      <c r="L19" s="179"/>
-      <c r="M19" s="179"/>
-      <c r="N19" s="179"/>
-      <c r="O19" s="179"/>
-      <c r="P19" s="179"/>
-      <c r="Q19" s="179"/>
-      <c r="R19" s="179"/>
-      <c r="S19" s="179"/>
-      <c r="T19" s="179"/>
-      <c r="U19" s="179"/>
-      <c r="V19" s="179"/>
-      <c r="W19" s="179"/>
-      <c r="X19" s="179"/>
-      <c r="Y19" s="179"/>
-      <c r="Z19" s="179"/>
-      <c r="AA19" s="179"/>
-      <c r="AB19" s="179"/>
-      <c r="AC19" s="179"/>
-      <c r="AD19" s="179"/>
-      <c r="AE19" s="179"/>
-      <c r="AF19" s="179"/>
-      <c r="AG19" s="179"/>
-      <c r="AH19" s="179"/>
-      <c r="AI19" s="179"/>
-      <c r="AJ19" s="179"/>
-      <c r="AK19" s="180"/>
-    </row>
-    <row r="20" spans="1:37" ht="10.9" customHeight="1">
-      <c r="A20" s="176"/>
-      <c r="B20" s="177"/>
-      <c r="C20" s="177"/>
-      <c r="D20" s="177"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="176"/>
-      <c r="G20" s="177"/>
-      <c r="H20" s="177"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="179"/>
-      <c r="K20" s="179"/>
-      <c r="L20" s="179"/>
-      <c r="M20" s="179"/>
-      <c r="N20" s="179"/>
-      <c r="O20" s="179"/>
-      <c r="P20" s="179"/>
-      <c r="Q20" s="179"/>
-      <c r="R20" s="179"/>
-      <c r="S20" s="179"/>
-      <c r="T20" s="179"/>
-      <c r="U20" s="179"/>
-      <c r="V20" s="179"/>
-      <c r="W20" s="179"/>
-      <c r="X20" s="179"/>
-      <c r="Y20" s="179"/>
-      <c r="Z20" s="179"/>
-      <c r="AA20" s="179"/>
-      <c r="AB20" s="179"/>
-      <c r="AC20" s="179"/>
-      <c r="AD20" s="179"/>
-      <c r="AE20" s="179"/>
-      <c r="AF20" s="179"/>
-      <c r="AG20" s="179"/>
-      <c r="AH20" s="179"/>
-      <c r="AI20" s="179"/>
-      <c r="AJ20" s="179"/>
-      <c r="AK20" s="180"/>
-    </row>
-    <row r="21" spans="1:37" ht="10.9" customHeight="1">
-      <c r="A21" s="176"/>
-      <c r="B21" s="177"/>
-      <c r="C21" s="177"/>
-      <c r="D21" s="177"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="176"/>
-      <c r="G21" s="177"/>
-      <c r="H21" s="177"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="179"/>
-      <c r="K21" s="179"/>
-      <c r="L21" s="179"/>
-      <c r="M21" s="179"/>
-      <c r="N21" s="179"/>
-      <c r="O21" s="179"/>
-      <c r="P21" s="179"/>
-      <c r="Q21" s="179"/>
-      <c r="R21" s="179"/>
-      <c r="S21" s="179"/>
-      <c r="T21" s="179"/>
-      <c r="U21" s="179"/>
-      <c r="V21" s="179"/>
-      <c r="W21" s="179"/>
-      <c r="X21" s="179"/>
-      <c r="Y21" s="179"/>
-      <c r="Z21" s="179"/>
-      <c r="AA21" s="179"/>
-      <c r="AB21" s="179"/>
-      <c r="AC21" s="179"/>
-      <c r="AD21" s="179"/>
-      <c r="AE21" s="179"/>
-      <c r="AF21" s="179"/>
-      <c r="AG21" s="179"/>
-      <c r="AH21" s="179"/>
-      <c r="AI21" s="179"/>
-      <c r="AJ21" s="179"/>
-      <c r="AK21" s="180"/>
-    </row>
-    <row r="22" spans="1:37" ht="10.9" customHeight="1">
-      <c r="A22" s="176"/>
-      <c r="B22" s="177"/>
-      <c r="C22" s="177"/>
-      <c r="D22" s="177"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="176"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="177"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="179"/>
-      <c r="K22" s="179"/>
-      <c r="L22" s="179"/>
-      <c r="M22" s="179"/>
-      <c r="N22" s="179"/>
-      <c r="O22" s="179"/>
-      <c r="P22" s="179"/>
-      <c r="Q22" s="179"/>
-      <c r="R22" s="179"/>
-      <c r="S22" s="179"/>
-      <c r="T22" s="179"/>
-      <c r="U22" s="179"/>
-      <c r="V22" s="179"/>
-      <c r="W22" s="179"/>
-      <c r="X22" s="179"/>
-      <c r="Y22" s="179"/>
-      <c r="Z22" s="179"/>
-      <c r="AA22" s="179"/>
-      <c r="AB22" s="179"/>
-      <c r="AC22" s="179"/>
-      <c r="AD22" s="179"/>
-      <c r="AE22" s="179"/>
-      <c r="AF22" s="179"/>
-      <c r="AG22" s="179"/>
-      <c r="AH22" s="179"/>
-      <c r="AI22" s="179"/>
-      <c r="AJ22" s="179"/>
-      <c r="AK22" s="180"/>
-    </row>
-    <row r="23" spans="1:37" ht="10.9" customHeight="1">
-      <c r="A23" s="176"/>
-      <c r="B23" s="177"/>
-      <c r="C23" s="177"/>
-      <c r="D23" s="177"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="176"/>
-      <c r="G23" s="177"/>
-      <c r="H23" s="177"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="179"/>
-      <c r="K23" s="179"/>
-      <c r="L23" s="179"/>
-      <c r="M23" s="179"/>
-      <c r="N23" s="179"/>
-      <c r="O23" s="179"/>
-      <c r="P23" s="179"/>
-      <c r="Q23" s="179"/>
-      <c r="R23" s="179"/>
-      <c r="S23" s="179"/>
-      <c r="T23" s="179"/>
-      <c r="U23" s="179"/>
-      <c r="V23" s="179"/>
-      <c r="W23" s="179"/>
-      <c r="X23" s="179"/>
-      <c r="Y23" s="179"/>
-      <c r="Z23" s="179"/>
-      <c r="AA23" s="179"/>
-      <c r="AB23" s="179"/>
-      <c r="AC23" s="179"/>
-      <c r="AD23" s="179"/>
-      <c r="AE23" s="179"/>
-      <c r="AF23" s="179"/>
-      <c r="AG23" s="179"/>
-      <c r="AH23" s="179"/>
-      <c r="AI23" s="179"/>
-      <c r="AJ23" s="179"/>
-      <c r="AK23" s="180"/>
-    </row>
-    <row r="24" spans="1:37" ht="10.9" customHeight="1">
-      <c r="A24" s="176"/>
-      <c r="B24" s="177"/>
-      <c r="C24" s="177"/>
-      <c r="D24" s="177"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="176"/>
-      <c r="G24" s="177"/>
-      <c r="H24" s="177"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="179"/>
-      <c r="K24" s="179"/>
-      <c r="L24" s="179"/>
-      <c r="M24" s="179"/>
-      <c r="N24" s="179"/>
-      <c r="O24" s="179"/>
-      <c r="P24" s="179"/>
-      <c r="Q24" s="179"/>
-      <c r="R24" s="179"/>
-      <c r="S24" s="179"/>
-      <c r="T24" s="179"/>
-      <c r="U24" s="179"/>
-      <c r="V24" s="179"/>
-      <c r="W24" s="179"/>
-      <c r="X24" s="179"/>
-      <c r="Y24" s="179"/>
-      <c r="Z24" s="179"/>
-      <c r="AA24" s="179"/>
-      <c r="AB24" s="179"/>
-      <c r="AC24" s="179"/>
-      <c r="AD24" s="179"/>
-      <c r="AE24" s="179"/>
-      <c r="AF24" s="179"/>
-      <c r="AG24" s="179"/>
-      <c r="AH24" s="179"/>
-      <c r="AI24" s="179"/>
-      <c r="AJ24" s="179"/>
-      <c r="AK24" s="180"/>
-    </row>
-    <row r="25" spans="1:37" ht="10.9" customHeight="1">
-      <c r="A25" s="176"/>
-      <c r="B25" s="177"/>
-      <c r="C25" s="177"/>
-      <c r="D25" s="177"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="176"/>
-      <c r="G25" s="177"/>
-      <c r="H25" s="177"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="179"/>
-      <c r="K25" s="179"/>
-      <c r="L25" s="179"/>
-      <c r="M25" s="179"/>
-      <c r="N25" s="179"/>
-      <c r="O25" s="179"/>
-      <c r="P25" s="179"/>
-      <c r="Q25" s="179"/>
-      <c r="R25" s="179"/>
-      <c r="S25" s="179"/>
-      <c r="T25" s="179"/>
-      <c r="U25" s="179"/>
-      <c r="V25" s="179"/>
-      <c r="W25" s="179"/>
-      <c r="X25" s="179"/>
-      <c r="Y25" s="179"/>
-      <c r="Z25" s="179"/>
-      <c r="AA25" s="179"/>
-      <c r="AB25" s="179"/>
-      <c r="AC25" s="179"/>
-      <c r="AD25" s="179"/>
-      <c r="AE25" s="179"/>
-      <c r="AF25" s="179"/>
-      <c r="AG25" s="179"/>
-      <c r="AH25" s="179"/>
-      <c r="AI25" s="179"/>
-      <c r="AJ25" s="179"/>
-      <c r="AK25" s="180"/>
-    </row>
-    <row r="26" spans="1:37" ht="10.9" customHeight="1">
-      <c r="A26" s="176"/>
-      <c r="B26" s="177"/>
-      <c r="C26" s="177"/>
-      <c r="D26" s="177"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="176"/>
-      <c r="G26" s="177"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="179"/>
-      <c r="K26" s="179"/>
-      <c r="L26" s="179"/>
-      <c r="M26" s="179"/>
-      <c r="N26" s="179"/>
-      <c r="O26" s="179"/>
-      <c r="P26" s="179"/>
-      <c r="Q26" s="179"/>
-      <c r="R26" s="179"/>
-      <c r="S26" s="179"/>
-      <c r="T26" s="179"/>
-      <c r="U26" s="179"/>
-      <c r="V26" s="179"/>
-      <c r="W26" s="179"/>
-      <c r="X26" s="179"/>
-      <c r="Y26" s="179"/>
-      <c r="Z26" s="179"/>
-      <c r="AA26" s="179"/>
-      <c r="AB26" s="179"/>
-      <c r="AC26" s="179"/>
-      <c r="AD26" s="179"/>
-      <c r="AE26" s="179"/>
-      <c r="AF26" s="179"/>
-      <c r="AG26" s="179"/>
-      <c r="AH26" s="179"/>
-      <c r="AI26" s="179"/>
-      <c r="AJ26" s="179"/>
-      <c r="AK26" s="180"/>
-    </row>
-    <row r="27" spans="1:37" ht="10.9" customHeight="1">
-      <c r="A27" s="176"/>
-      <c r="B27" s="177"/>
-      <c r="C27" s="177"/>
-      <c r="D27" s="177"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="176"/>
-      <c r="G27" s="177"/>
-      <c r="H27" s="177"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="179"/>
-      <c r="K27" s="179"/>
-      <c r="L27" s="179"/>
-      <c r="M27" s="179"/>
-      <c r="N27" s="179"/>
-      <c r="O27" s="179"/>
-      <c r="P27" s="179"/>
-      <c r="Q27" s="179"/>
-      <c r="R27" s="179"/>
-      <c r="S27" s="179"/>
-      <c r="T27" s="179"/>
-      <c r="U27" s="179"/>
-      <c r="V27" s="179"/>
-      <c r="W27" s="179"/>
-      <c r="X27" s="179"/>
-      <c r="Y27" s="179"/>
-      <c r="Z27" s="179"/>
-      <c r="AA27" s="179"/>
-      <c r="AB27" s="179"/>
-      <c r="AC27" s="179"/>
-      <c r="AD27" s="179"/>
-      <c r="AE27" s="179"/>
-      <c r="AF27" s="179"/>
-      <c r="AG27" s="179"/>
-      <c r="AH27" s="179"/>
-      <c r="AI27" s="179"/>
-      <c r="AJ27" s="179"/>
-      <c r="AK27" s="180"/>
-    </row>
-    <row r="28" spans="1:37" ht="10.9" customHeight="1">
-      <c r="A28" s="176"/>
-      <c r="B28" s="177"/>
-      <c r="C28" s="177"/>
-      <c r="D28" s="177"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="176"/>
-      <c r="G28" s="177"/>
-      <c r="H28" s="177"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="179"/>
-      <c r="K28" s="179"/>
-      <c r="L28" s="179"/>
-      <c r="M28" s="179"/>
-      <c r="N28" s="179"/>
-      <c r="O28" s="179"/>
-      <c r="P28" s="179"/>
-      <c r="Q28" s="179"/>
-      <c r="R28" s="179"/>
-      <c r="S28" s="179"/>
-      <c r="T28" s="179"/>
-      <c r="U28" s="179"/>
-      <c r="V28" s="179"/>
-      <c r="W28" s="179"/>
-      <c r="X28" s="179"/>
-      <c r="Y28" s="179"/>
-      <c r="Z28" s="179"/>
-      <c r="AA28" s="179"/>
-      <c r="AB28" s="179"/>
-      <c r="AC28" s="179"/>
-      <c r="AD28" s="179"/>
-      <c r="AE28" s="179"/>
-      <c r="AF28" s="179"/>
-      <c r="AG28" s="179"/>
-      <c r="AH28" s="179"/>
-      <c r="AI28" s="179"/>
-      <c r="AJ28" s="179"/>
-      <c r="AK28" s="180"/>
-    </row>
-    <row r="29" spans="1:37" ht="10.9" customHeight="1">
-      <c r="A29" s="176"/>
-      <c r="B29" s="177"/>
-      <c r="C29" s="177"/>
-      <c r="D29" s="177"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="176"/>
-      <c r="G29" s="177"/>
-      <c r="H29" s="177"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="179"/>
-      <c r="K29" s="179"/>
-      <c r="L29" s="179"/>
-      <c r="M29" s="179"/>
-      <c r="N29" s="179"/>
-      <c r="O29" s="179"/>
-      <c r="P29" s="179"/>
-      <c r="Q29" s="179"/>
-      <c r="R29" s="179"/>
-      <c r="S29" s="179"/>
-      <c r="T29" s="179"/>
-      <c r="U29" s="179"/>
-      <c r="V29" s="179"/>
-      <c r="W29" s="179"/>
-      <c r="X29" s="179"/>
-      <c r="Y29" s="179"/>
-      <c r="Z29" s="179"/>
-      <c r="AA29" s="179"/>
-      <c r="AB29" s="179"/>
-      <c r="AC29" s="179"/>
-      <c r="AD29" s="179"/>
-      <c r="AE29" s="179"/>
-      <c r="AF29" s="179"/>
-      <c r="AG29" s="179"/>
-      <c r="AH29" s="179"/>
-      <c r="AI29" s="179"/>
-      <c r="AJ29" s="179"/>
-      <c r="AK29" s="180"/>
-    </row>
-    <row r="30" spans="1:37" ht="10.9" customHeight="1" thickBot="1">
-      <c r="A30" s="171"/>
-      <c r="B30" s="172"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="172"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="174"/>
-      <c r="L30" s="174"/>
-      <c r="M30" s="174"/>
-      <c r="N30" s="174"/>
-      <c r="O30" s="174"/>
-      <c r="P30" s="174"/>
-      <c r="Q30" s="174"/>
-      <c r="R30" s="174"/>
-      <c r="S30" s="174"/>
-      <c r="T30" s="174"/>
-      <c r="U30" s="174"/>
-      <c r="V30" s="174"/>
-      <c r="W30" s="174"/>
-      <c r="X30" s="174"/>
-      <c r="Y30" s="174"/>
-      <c r="Z30" s="174"/>
-      <c r="AA30" s="174"/>
-      <c r="AB30" s="174"/>
-      <c r="AC30" s="174"/>
-      <c r="AD30" s="174"/>
-      <c r="AE30" s="174"/>
-      <c r="AF30" s="174"/>
-      <c r="AG30" s="174"/>
-      <c r="AH30" s="174"/>
-      <c r="AI30" s="174"/>
-      <c r="AJ30" s="174"/>
-      <c r="AK30" s="175"/>
+      <c r="K6" s="200"/>
+      <c r="L6" s="200"/>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200"/>
+      <c r="O6" s="200"/>
+      <c r="P6" s="200"/>
+      <c r="Q6" s="200"/>
+      <c r="R6" s="200"/>
+      <c r="S6" s="200"/>
+      <c r="T6" s="200"/>
+      <c r="U6" s="200"/>
+      <c r="V6" s="200"/>
+      <c r="W6" s="200"/>
+      <c r="X6" s="200"/>
+      <c r="Y6" s="200"/>
+      <c r="Z6" s="200"/>
+      <c r="AA6" s="200"/>
+      <c r="AB6" s="200"/>
+      <c r="AC6" s="200"/>
+      <c r="AD6" s="200"/>
+      <c r="AE6" s="200"/>
+      <c r="AF6" s="200"/>
+      <c r="AG6" s="200"/>
+      <c r="AH6" s="200"/>
+      <c r="AI6" s="200"/>
+      <c r="AJ6" s="200"/>
+      <c r="AK6" s="201"/>
+    </row>
+    <row r="7" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A7" s="202">
+        <v>45665</v>
+      </c>
+      <c r="B7" s="203"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="203"/>
+      <c r="E7" s="204"/>
+      <c r="F7" s="205" t="s">
+        <v>401</v>
+      </c>
+      <c r="G7" s="206"/>
+      <c r="H7" s="206"/>
+      <c r="I7" s="207"/>
+      <c r="J7" s="208" t="s">
+        <v>402</v>
+      </c>
+      <c r="K7" s="209"/>
+      <c r="L7" s="209"/>
+      <c r="M7" s="209"/>
+      <c r="N7" s="209"/>
+      <c r="O7" s="209"/>
+      <c r="P7" s="209"/>
+      <c r="Q7" s="209"/>
+      <c r="R7" s="209"/>
+      <c r="S7" s="209"/>
+      <c r="T7" s="209"/>
+      <c r="U7" s="209"/>
+      <c r="V7" s="209"/>
+      <c r="W7" s="209"/>
+      <c r="X7" s="209"/>
+      <c r="Y7" s="209"/>
+      <c r="Z7" s="209"/>
+      <c r="AA7" s="209"/>
+      <c r="AB7" s="209"/>
+      <c r="AC7" s="209"/>
+      <c r="AD7" s="209"/>
+      <c r="AE7" s="209"/>
+      <c r="AF7" s="209"/>
+      <c r="AG7" s="209"/>
+      <c r="AH7" s="209"/>
+      <c r="AI7" s="209"/>
+      <c r="AJ7" s="209"/>
+      <c r="AK7" s="210"/>
+    </row>
+    <row r="8" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A8" s="190"/>
+      <c r="B8" s="191"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="192"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="187"/>
+      <c r="H8" s="187"/>
+      <c r="I8" s="188"/>
+      <c r="J8" s="211"/>
+      <c r="K8" s="212"/>
+      <c r="L8" s="212"/>
+      <c r="M8" s="212"/>
+      <c r="N8" s="212"/>
+      <c r="O8" s="212"/>
+      <c r="P8" s="212"/>
+      <c r="Q8" s="212"/>
+      <c r="R8" s="212"/>
+      <c r="S8" s="212"/>
+      <c r="T8" s="212"/>
+      <c r="U8" s="212"/>
+      <c r="V8" s="212"/>
+      <c r="W8" s="212"/>
+      <c r="X8" s="212"/>
+      <c r="Y8" s="212"/>
+      <c r="Z8" s="212"/>
+      <c r="AA8" s="212"/>
+      <c r="AB8" s="212"/>
+      <c r="AC8" s="212"/>
+      <c r="AD8" s="212"/>
+      <c r="AE8" s="212"/>
+      <c r="AF8" s="212"/>
+      <c r="AG8" s="212"/>
+      <c r="AH8" s="212"/>
+      <c r="AI8" s="212"/>
+      <c r="AJ8" s="212"/>
+      <c r="AK8" s="213"/>
+    </row>
+    <row r="9" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A9" s="214"/>
+      <c r="B9" s="215"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="215"/>
+      <c r="E9" s="216"/>
+      <c r="F9" s="217"/>
+      <c r="G9" s="218"/>
+      <c r="H9" s="218"/>
+      <c r="I9" s="219"/>
+      <c r="J9" s="220"/>
+      <c r="K9" s="221"/>
+      <c r="L9" s="221"/>
+      <c r="M9" s="221"/>
+      <c r="N9" s="221"/>
+      <c r="O9" s="221"/>
+      <c r="P9" s="221"/>
+      <c r="Q9" s="221"/>
+      <c r="R9" s="221"/>
+      <c r="S9" s="221"/>
+      <c r="T9" s="221"/>
+      <c r="U9" s="221"/>
+      <c r="V9" s="221"/>
+      <c r="W9" s="221"/>
+      <c r="X9" s="221"/>
+      <c r="Y9" s="221"/>
+      <c r="Z9" s="221"/>
+      <c r="AA9" s="221"/>
+      <c r="AB9" s="221"/>
+      <c r="AC9" s="221"/>
+      <c r="AD9" s="221"/>
+      <c r="AE9" s="221"/>
+      <c r="AF9" s="221"/>
+      <c r="AG9" s="221"/>
+      <c r="AH9" s="221"/>
+      <c r="AI9" s="221"/>
+      <c r="AJ9" s="221"/>
+      <c r="AK9" s="222"/>
+    </row>
+    <row r="10" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A10" s="190"/>
+      <c r="B10" s="191"/>
+      <c r="C10" s="191"/>
+      <c r="D10" s="191"/>
+      <c r="E10" s="192"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="188"/>
+      <c r="J10" s="211"/>
+      <c r="K10" s="212"/>
+      <c r="L10" s="212"/>
+      <c r="M10" s="212"/>
+      <c r="N10" s="212"/>
+      <c r="O10" s="212"/>
+      <c r="P10" s="212"/>
+      <c r="Q10" s="212"/>
+      <c r="R10" s="212"/>
+      <c r="S10" s="212"/>
+      <c r="T10" s="212"/>
+      <c r="U10" s="212"/>
+      <c r="V10" s="212"/>
+      <c r="W10" s="212"/>
+      <c r="X10" s="212"/>
+      <c r="Y10" s="212"/>
+      <c r="Z10" s="212"/>
+      <c r="AA10" s="212"/>
+      <c r="AB10" s="212"/>
+      <c r="AC10" s="212"/>
+      <c r="AD10" s="212"/>
+      <c r="AE10" s="212"/>
+      <c r="AF10" s="212"/>
+      <c r="AG10" s="212"/>
+      <c r="AH10" s="212"/>
+      <c r="AI10" s="212"/>
+      <c r="AJ10" s="212"/>
+      <c r="AK10" s="213"/>
+    </row>
+    <row r="11" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A11" s="186"/>
+      <c r="B11" s="187"/>
+      <c r="C11" s="187"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="188"/>
+      <c r="F11" s="186"/>
+      <c r="G11" s="187"/>
+      <c r="H11" s="187"/>
+      <c r="I11" s="188"/>
+      <c r="J11" s="223"/>
+      <c r="K11" s="223"/>
+      <c r="L11" s="223"/>
+      <c r="M11" s="223"/>
+      <c r="N11" s="223"/>
+      <c r="O11" s="223"/>
+      <c r="P11" s="223"/>
+      <c r="Q11" s="223"/>
+      <c r="R11" s="223"/>
+      <c r="S11" s="223"/>
+      <c r="T11" s="223"/>
+      <c r="U11" s="223"/>
+      <c r="V11" s="223"/>
+      <c r="W11" s="223"/>
+      <c r="X11" s="223"/>
+      <c r="Y11" s="223"/>
+      <c r="Z11" s="223"/>
+      <c r="AA11" s="223"/>
+      <c r="AB11" s="223"/>
+      <c r="AC11" s="223"/>
+      <c r="AD11" s="223"/>
+      <c r="AE11" s="223"/>
+      <c r="AF11" s="223"/>
+      <c r="AG11" s="223"/>
+      <c r="AH11" s="223"/>
+      <c r="AI11" s="223"/>
+      <c r="AJ11" s="223"/>
+      <c r="AK11" s="224"/>
+    </row>
+    <row r="12" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A12" s="186"/>
+      <c r="B12" s="187"/>
+      <c r="C12" s="187"/>
+      <c r="D12" s="187"/>
+      <c r="E12" s="188"/>
+      <c r="F12" s="186"/>
+      <c r="G12" s="187"/>
+      <c r="H12" s="187"/>
+      <c r="I12" s="188"/>
+      <c r="J12" s="223"/>
+      <c r="K12" s="223"/>
+      <c r="L12" s="223"/>
+      <c r="M12" s="223"/>
+      <c r="N12" s="223"/>
+      <c r="O12" s="223"/>
+      <c r="P12" s="223"/>
+      <c r="Q12" s="223"/>
+      <c r="R12" s="223"/>
+      <c r="S12" s="223"/>
+      <c r="T12" s="223"/>
+      <c r="U12" s="223"/>
+      <c r="V12" s="223"/>
+      <c r="W12" s="223"/>
+      <c r="X12" s="223"/>
+      <c r="Y12" s="223"/>
+      <c r="Z12" s="223"/>
+      <c r="AA12" s="223"/>
+      <c r="AB12" s="223"/>
+      <c r="AC12" s="223"/>
+      <c r="AD12" s="223"/>
+      <c r="AE12" s="223"/>
+      <c r="AF12" s="223"/>
+      <c r="AG12" s="223"/>
+      <c r="AH12" s="223"/>
+      <c r="AI12" s="223"/>
+      <c r="AJ12" s="223"/>
+      <c r="AK12" s="224"/>
+    </row>
+    <row r="13" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A13" s="186"/>
+      <c r="B13" s="187"/>
+      <c r="C13" s="187"/>
+      <c r="D13" s="187"/>
+      <c r="E13" s="188"/>
+      <c r="F13" s="186"/>
+      <c r="G13" s="187"/>
+      <c r="H13" s="187"/>
+      <c r="I13" s="188"/>
+      <c r="J13" s="223"/>
+      <c r="K13" s="223"/>
+      <c r="L13" s="223"/>
+      <c r="M13" s="223"/>
+      <c r="N13" s="223"/>
+      <c r="O13" s="223"/>
+      <c r="P13" s="223"/>
+      <c r="Q13" s="223"/>
+      <c r="R13" s="223"/>
+      <c r="S13" s="223"/>
+      <c r="T13" s="223"/>
+      <c r="U13" s="223"/>
+      <c r="V13" s="223"/>
+      <c r="W13" s="223"/>
+      <c r="X13" s="223"/>
+      <c r="Y13" s="223"/>
+      <c r="Z13" s="223"/>
+      <c r="AA13" s="223"/>
+      <c r="AB13" s="223"/>
+      <c r="AC13" s="223"/>
+      <c r="AD13" s="223"/>
+      <c r="AE13" s="223"/>
+      <c r="AF13" s="223"/>
+      <c r="AG13" s="223"/>
+      <c r="AH13" s="223"/>
+      <c r="AI13" s="223"/>
+      <c r="AJ13" s="223"/>
+      <c r="AK13" s="224"/>
+    </row>
+    <row r="14" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A14" s="186"/>
+      <c r="B14" s="187"/>
+      <c r="C14" s="187"/>
+      <c r="D14" s="187"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="186"/>
+      <c r="G14" s="187"/>
+      <c r="H14" s="187"/>
+      <c r="I14" s="188"/>
+      <c r="J14" s="223"/>
+      <c r="K14" s="223"/>
+      <c r="L14" s="223"/>
+      <c r="M14" s="223"/>
+      <c r="N14" s="223"/>
+      <c r="O14" s="223"/>
+      <c r="P14" s="223"/>
+      <c r="Q14" s="223"/>
+      <c r="R14" s="223"/>
+      <c r="S14" s="223"/>
+      <c r="T14" s="223"/>
+      <c r="U14" s="223"/>
+      <c r="V14" s="223"/>
+      <c r="W14" s="223"/>
+      <c r="X14" s="223"/>
+      <c r="Y14" s="223"/>
+      <c r="Z14" s="223"/>
+      <c r="AA14" s="223"/>
+      <c r="AB14" s="223"/>
+      <c r="AC14" s="223"/>
+      <c r="AD14" s="223"/>
+      <c r="AE14" s="223"/>
+      <c r="AF14" s="223"/>
+      <c r="AG14" s="223"/>
+      <c r="AH14" s="223"/>
+      <c r="AI14" s="223"/>
+      <c r="AJ14" s="223"/>
+      <c r="AK14" s="224"/>
+    </row>
+    <row r="15" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A15" s="186"/>
+      <c r="B15" s="187"/>
+      <c r="C15" s="187"/>
+      <c r="D15" s="187"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="187"/>
+      <c r="H15" s="187"/>
+      <c r="I15" s="188"/>
+      <c r="J15" s="223"/>
+      <c r="K15" s="223"/>
+      <c r="L15" s="223"/>
+      <c r="M15" s="223"/>
+      <c r="N15" s="223"/>
+      <c r="O15" s="223"/>
+      <c r="P15" s="223"/>
+      <c r="Q15" s="223"/>
+      <c r="R15" s="223"/>
+      <c r="S15" s="223"/>
+      <c r="T15" s="223"/>
+      <c r="U15" s="223"/>
+      <c r="V15" s="223"/>
+      <c r="W15" s="223"/>
+      <c r="X15" s="223"/>
+      <c r="Y15" s="223"/>
+      <c r="Z15" s="223"/>
+      <c r="AA15" s="223"/>
+      <c r="AB15" s="223"/>
+      <c r="AC15" s="223"/>
+      <c r="AD15" s="223"/>
+      <c r="AE15" s="223"/>
+      <c r="AF15" s="223"/>
+      <c r="AG15" s="223"/>
+      <c r="AH15" s="223"/>
+      <c r="AI15" s="223"/>
+      <c r="AJ15" s="223"/>
+      <c r="AK15" s="224"/>
+    </row>
+    <row r="16" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A16" s="186"/>
+      <c r="B16" s="187"/>
+      <c r="C16" s="187"/>
+      <c r="D16" s="187"/>
+      <c r="E16" s="188"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="187"/>
+      <c r="H16" s="187"/>
+      <c r="I16" s="188"/>
+      <c r="J16" s="223"/>
+      <c r="K16" s="223"/>
+      <c r="L16" s="223"/>
+      <c r="M16" s="223"/>
+      <c r="N16" s="223"/>
+      <c r="O16" s="223"/>
+      <c r="P16" s="223"/>
+      <c r="Q16" s="223"/>
+      <c r="R16" s="223"/>
+      <c r="S16" s="223"/>
+      <c r="T16" s="223"/>
+      <c r="U16" s="223"/>
+      <c r="V16" s="223"/>
+      <c r="W16" s="223"/>
+      <c r="X16" s="223"/>
+      <c r="Y16" s="223"/>
+      <c r="Z16" s="223"/>
+      <c r="AA16" s="223"/>
+      <c r="AB16" s="223"/>
+      <c r="AC16" s="223"/>
+      <c r="AD16" s="223"/>
+      <c r="AE16" s="223"/>
+      <c r="AF16" s="223"/>
+      <c r="AG16" s="223"/>
+      <c r="AH16" s="223"/>
+      <c r="AI16" s="223"/>
+      <c r="AJ16" s="223"/>
+      <c r="AK16" s="224"/>
+    </row>
+    <row r="17" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A17" s="186"/>
+      <c r="B17" s="187"/>
+      <c r="C17" s="187"/>
+      <c r="D17" s="187"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="186"/>
+      <c r="G17" s="187"/>
+      <c r="H17" s="187"/>
+      <c r="I17" s="188"/>
+      <c r="J17" s="223"/>
+      <c r="K17" s="223"/>
+      <c r="L17" s="223"/>
+      <c r="M17" s="223"/>
+      <c r="N17" s="223"/>
+      <c r="O17" s="223"/>
+      <c r="P17" s="223"/>
+      <c r="Q17" s="223"/>
+      <c r="R17" s="223"/>
+      <c r="S17" s="223"/>
+      <c r="T17" s="223"/>
+      <c r="U17" s="223"/>
+      <c r="V17" s="223"/>
+      <c r="W17" s="223"/>
+      <c r="X17" s="223"/>
+      <c r="Y17" s="223"/>
+      <c r="Z17" s="223"/>
+      <c r="AA17" s="223"/>
+      <c r="AB17" s="223"/>
+      <c r="AC17" s="223"/>
+      <c r="AD17" s="223"/>
+      <c r="AE17" s="223"/>
+      <c r="AF17" s="223"/>
+      <c r="AG17" s="223"/>
+      <c r="AH17" s="223"/>
+      <c r="AI17" s="223"/>
+      <c r="AJ17" s="223"/>
+      <c r="AK17" s="224"/>
+    </row>
+    <row r="18" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A18" s="186"/>
+      <c r="B18" s="187"/>
+      <c r="C18" s="187"/>
+      <c r="D18" s="187"/>
+      <c r="E18" s="188"/>
+      <c r="F18" s="186"/>
+      <c r="G18" s="187"/>
+      <c r="H18" s="187"/>
+      <c r="I18" s="188"/>
+      <c r="J18" s="223"/>
+      <c r="K18" s="223"/>
+      <c r="L18" s="223"/>
+      <c r="M18" s="223"/>
+      <c r="N18" s="223"/>
+      <c r="O18" s="223"/>
+      <c r="P18" s="223"/>
+      <c r="Q18" s="223"/>
+      <c r="R18" s="223"/>
+      <c r="S18" s="223"/>
+      <c r="T18" s="223"/>
+      <c r="U18" s="223"/>
+      <c r="V18" s="223"/>
+      <c r="W18" s="223"/>
+      <c r="X18" s="223"/>
+      <c r="Y18" s="223"/>
+      <c r="Z18" s="223"/>
+      <c r="AA18" s="223"/>
+      <c r="AB18" s="223"/>
+      <c r="AC18" s="223"/>
+      <c r="AD18" s="223"/>
+      <c r="AE18" s="223"/>
+      <c r="AF18" s="223"/>
+      <c r="AG18" s="223"/>
+      <c r="AH18" s="223"/>
+      <c r="AI18" s="223"/>
+      <c r="AJ18" s="223"/>
+      <c r="AK18" s="224"/>
+    </row>
+    <row r="19" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A19" s="186"/>
+      <c r="B19" s="187"/>
+      <c r="C19" s="187"/>
+      <c r="D19" s="187"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="186"/>
+      <c r="G19" s="187"/>
+      <c r="H19" s="187"/>
+      <c r="I19" s="188"/>
+      <c r="J19" s="223"/>
+      <c r="K19" s="223"/>
+      <c r="L19" s="223"/>
+      <c r="M19" s="223"/>
+      <c r="N19" s="223"/>
+      <c r="O19" s="223"/>
+      <c r="P19" s="223"/>
+      <c r="Q19" s="223"/>
+      <c r="R19" s="223"/>
+      <c r="S19" s="223"/>
+      <c r="T19" s="223"/>
+      <c r="U19" s="223"/>
+      <c r="V19" s="223"/>
+      <c r="W19" s="223"/>
+      <c r="X19" s="223"/>
+      <c r="Y19" s="223"/>
+      <c r="Z19" s="223"/>
+      <c r="AA19" s="223"/>
+      <c r="AB19" s="223"/>
+      <c r="AC19" s="223"/>
+      <c r="AD19" s="223"/>
+      <c r="AE19" s="223"/>
+      <c r="AF19" s="223"/>
+      <c r="AG19" s="223"/>
+      <c r="AH19" s="223"/>
+      <c r="AI19" s="223"/>
+      <c r="AJ19" s="223"/>
+      <c r="AK19" s="224"/>
+    </row>
+    <row r="20" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A20" s="186"/>
+      <c r="B20" s="187"/>
+      <c r="C20" s="187"/>
+      <c r="D20" s="187"/>
+      <c r="E20" s="188"/>
+      <c r="F20" s="186"/>
+      <c r="G20" s="187"/>
+      <c r="H20" s="187"/>
+      <c r="I20" s="188"/>
+      <c r="J20" s="223"/>
+      <c r="K20" s="223"/>
+      <c r="L20" s="223"/>
+      <c r="M20" s="223"/>
+      <c r="N20" s="223"/>
+      <c r="O20" s="223"/>
+      <c r="P20" s="223"/>
+      <c r="Q20" s="223"/>
+      <c r="R20" s="223"/>
+      <c r="S20" s="223"/>
+      <c r="T20" s="223"/>
+      <c r="U20" s="223"/>
+      <c r="V20" s="223"/>
+      <c r="W20" s="223"/>
+      <c r="X20" s="223"/>
+      <c r="Y20" s="223"/>
+      <c r="Z20" s="223"/>
+      <c r="AA20" s="223"/>
+      <c r="AB20" s="223"/>
+      <c r="AC20" s="223"/>
+      <c r="AD20" s="223"/>
+      <c r="AE20" s="223"/>
+      <c r="AF20" s="223"/>
+      <c r="AG20" s="223"/>
+      <c r="AH20" s="223"/>
+      <c r="AI20" s="223"/>
+      <c r="AJ20" s="223"/>
+      <c r="AK20" s="224"/>
+    </row>
+    <row r="21" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A21" s="186"/>
+      <c r="B21" s="187"/>
+      <c r="C21" s="187"/>
+      <c r="D21" s="187"/>
+      <c r="E21" s="188"/>
+      <c r="F21" s="186"/>
+      <c r="G21" s="187"/>
+      <c r="H21" s="187"/>
+      <c r="I21" s="188"/>
+      <c r="J21" s="223"/>
+      <c r="K21" s="223"/>
+      <c r="L21" s="223"/>
+      <c r="M21" s="223"/>
+      <c r="N21" s="223"/>
+      <c r="O21" s="223"/>
+      <c r="P21" s="223"/>
+      <c r="Q21" s="223"/>
+      <c r="R21" s="223"/>
+      <c r="S21" s="223"/>
+      <c r="T21" s="223"/>
+      <c r="U21" s="223"/>
+      <c r="V21" s="223"/>
+      <c r="W21" s="223"/>
+      <c r="X21" s="223"/>
+      <c r="Y21" s="223"/>
+      <c r="Z21" s="223"/>
+      <c r="AA21" s="223"/>
+      <c r="AB21" s="223"/>
+      <c r="AC21" s="223"/>
+      <c r="AD21" s="223"/>
+      <c r="AE21" s="223"/>
+      <c r="AF21" s="223"/>
+      <c r="AG21" s="223"/>
+      <c r="AH21" s="223"/>
+      <c r="AI21" s="223"/>
+      <c r="AJ21" s="223"/>
+      <c r="AK21" s="224"/>
+    </row>
+    <row r="22" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A22" s="186"/>
+      <c r="B22" s="187"/>
+      <c r="C22" s="187"/>
+      <c r="D22" s="187"/>
+      <c r="E22" s="188"/>
+      <c r="F22" s="186"/>
+      <c r="G22" s="187"/>
+      <c r="H22" s="187"/>
+      <c r="I22" s="188"/>
+      <c r="J22" s="223"/>
+      <c r="K22" s="223"/>
+      <c r="L22" s="223"/>
+      <c r="M22" s="223"/>
+      <c r="N22" s="223"/>
+      <c r="O22" s="223"/>
+      <c r="P22" s="223"/>
+      <c r="Q22" s="223"/>
+      <c r="R22" s="223"/>
+      <c r="S22" s="223"/>
+      <c r="T22" s="223"/>
+      <c r="U22" s="223"/>
+      <c r="V22" s="223"/>
+      <c r="W22" s="223"/>
+      <c r="X22" s="223"/>
+      <c r="Y22" s="223"/>
+      <c r="Z22" s="223"/>
+      <c r="AA22" s="223"/>
+      <c r="AB22" s="223"/>
+      <c r="AC22" s="223"/>
+      <c r="AD22" s="223"/>
+      <c r="AE22" s="223"/>
+      <c r="AF22" s="223"/>
+      <c r="AG22" s="223"/>
+      <c r="AH22" s="223"/>
+      <c r="AI22" s="223"/>
+      <c r="AJ22" s="223"/>
+      <c r="AK22" s="224"/>
+    </row>
+    <row r="23" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A23" s="186"/>
+      <c r="B23" s="187"/>
+      <c r="C23" s="187"/>
+      <c r="D23" s="187"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="186"/>
+      <c r="G23" s="187"/>
+      <c r="H23" s="187"/>
+      <c r="I23" s="188"/>
+      <c r="J23" s="223"/>
+      <c r="K23" s="223"/>
+      <c r="L23" s="223"/>
+      <c r="M23" s="223"/>
+      <c r="N23" s="223"/>
+      <c r="O23" s="223"/>
+      <c r="P23" s="223"/>
+      <c r="Q23" s="223"/>
+      <c r="R23" s="223"/>
+      <c r="S23" s="223"/>
+      <c r="T23" s="223"/>
+      <c r="U23" s="223"/>
+      <c r="V23" s="223"/>
+      <c r="W23" s="223"/>
+      <c r="X23" s="223"/>
+      <c r="Y23" s="223"/>
+      <c r="Z23" s="223"/>
+      <c r="AA23" s="223"/>
+      <c r="AB23" s="223"/>
+      <c r="AC23" s="223"/>
+      <c r="AD23" s="223"/>
+      <c r="AE23" s="223"/>
+      <c r="AF23" s="223"/>
+      <c r="AG23" s="223"/>
+      <c r="AH23" s="223"/>
+      <c r="AI23" s="223"/>
+      <c r="AJ23" s="223"/>
+      <c r="AK23" s="224"/>
+    </row>
+    <row r="24" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A24" s="186"/>
+      <c r="B24" s="187"/>
+      <c r="C24" s="187"/>
+      <c r="D24" s="187"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="186"/>
+      <c r="G24" s="187"/>
+      <c r="H24" s="187"/>
+      <c r="I24" s="188"/>
+      <c r="J24" s="223"/>
+      <c r="K24" s="223"/>
+      <c r="L24" s="223"/>
+      <c r="M24" s="223"/>
+      <c r="N24" s="223"/>
+      <c r="O24" s="223"/>
+      <c r="P24" s="223"/>
+      <c r="Q24" s="223"/>
+      <c r="R24" s="223"/>
+      <c r="S24" s="223"/>
+      <c r="T24" s="223"/>
+      <c r="U24" s="223"/>
+      <c r="V24" s="223"/>
+      <c r="W24" s="223"/>
+      <c r="X24" s="223"/>
+      <c r="Y24" s="223"/>
+      <c r="Z24" s="223"/>
+      <c r="AA24" s="223"/>
+      <c r="AB24" s="223"/>
+      <c r="AC24" s="223"/>
+      <c r="AD24" s="223"/>
+      <c r="AE24" s="223"/>
+      <c r="AF24" s="223"/>
+      <c r="AG24" s="223"/>
+      <c r="AH24" s="223"/>
+      <c r="AI24" s="223"/>
+      <c r="AJ24" s="223"/>
+      <c r="AK24" s="224"/>
+    </row>
+    <row r="25" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A25" s="186"/>
+      <c r="B25" s="187"/>
+      <c r="C25" s="187"/>
+      <c r="D25" s="187"/>
+      <c r="E25" s="188"/>
+      <c r="F25" s="186"/>
+      <c r="G25" s="187"/>
+      <c r="H25" s="187"/>
+      <c r="I25" s="188"/>
+      <c r="J25" s="223"/>
+      <c r="K25" s="223"/>
+      <c r="L25" s="223"/>
+      <c r="M25" s="223"/>
+      <c r="N25" s="223"/>
+      <c r="O25" s="223"/>
+      <c r="P25" s="223"/>
+      <c r="Q25" s="223"/>
+      <c r="R25" s="223"/>
+      <c r="S25" s="223"/>
+      <c r="T25" s="223"/>
+      <c r="U25" s="223"/>
+      <c r="V25" s="223"/>
+      <c r="W25" s="223"/>
+      <c r="X25" s="223"/>
+      <c r="Y25" s="223"/>
+      <c r="Z25" s="223"/>
+      <c r="AA25" s="223"/>
+      <c r="AB25" s="223"/>
+      <c r="AC25" s="223"/>
+      <c r="AD25" s="223"/>
+      <c r="AE25" s="223"/>
+      <c r="AF25" s="223"/>
+      <c r="AG25" s="223"/>
+      <c r="AH25" s="223"/>
+      <c r="AI25" s="223"/>
+      <c r="AJ25" s="223"/>
+      <c r="AK25" s="224"/>
+    </row>
+    <row r="26" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A26" s="186"/>
+      <c r="B26" s="187"/>
+      <c r="C26" s="187"/>
+      <c r="D26" s="187"/>
+      <c r="E26" s="188"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="187"/>
+      <c r="H26" s="187"/>
+      <c r="I26" s="188"/>
+      <c r="J26" s="223"/>
+      <c r="K26" s="223"/>
+      <c r="L26" s="223"/>
+      <c r="M26" s="223"/>
+      <c r="N26" s="223"/>
+      <c r="O26" s="223"/>
+      <c r="P26" s="223"/>
+      <c r="Q26" s="223"/>
+      <c r="R26" s="223"/>
+      <c r="S26" s="223"/>
+      <c r="T26" s="223"/>
+      <c r="U26" s="223"/>
+      <c r="V26" s="223"/>
+      <c r="W26" s="223"/>
+      <c r="X26" s="223"/>
+      <c r="Y26" s="223"/>
+      <c r="Z26" s="223"/>
+      <c r="AA26" s="223"/>
+      <c r="AB26" s="223"/>
+      <c r="AC26" s="223"/>
+      <c r="AD26" s="223"/>
+      <c r="AE26" s="223"/>
+      <c r="AF26" s="223"/>
+      <c r="AG26" s="223"/>
+      <c r="AH26" s="223"/>
+      <c r="AI26" s="223"/>
+      <c r="AJ26" s="223"/>
+      <c r="AK26" s="224"/>
+    </row>
+    <row r="27" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A27" s="186"/>
+      <c r="B27" s="187"/>
+      <c r="C27" s="187"/>
+      <c r="D27" s="187"/>
+      <c r="E27" s="188"/>
+      <c r="F27" s="186"/>
+      <c r="G27" s="187"/>
+      <c r="H27" s="187"/>
+      <c r="I27" s="188"/>
+      <c r="J27" s="223"/>
+      <c r="K27" s="223"/>
+      <c r="L27" s="223"/>
+      <c r="M27" s="223"/>
+      <c r="N27" s="223"/>
+      <c r="O27" s="223"/>
+      <c r="P27" s="223"/>
+      <c r="Q27" s="223"/>
+      <c r="R27" s="223"/>
+      <c r="S27" s="223"/>
+      <c r="T27" s="223"/>
+      <c r="U27" s="223"/>
+      <c r="V27" s="223"/>
+      <c r="W27" s="223"/>
+      <c r="X27" s="223"/>
+      <c r="Y27" s="223"/>
+      <c r="Z27" s="223"/>
+      <c r="AA27" s="223"/>
+      <c r="AB27" s="223"/>
+      <c r="AC27" s="223"/>
+      <c r="AD27" s="223"/>
+      <c r="AE27" s="223"/>
+      <c r="AF27" s="223"/>
+      <c r="AG27" s="223"/>
+      <c r="AH27" s="223"/>
+      <c r="AI27" s="223"/>
+      <c r="AJ27" s="223"/>
+      <c r="AK27" s="224"/>
+    </row>
+    <row r="28" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A28" s="186"/>
+      <c r="B28" s="187"/>
+      <c r="C28" s="187"/>
+      <c r="D28" s="187"/>
+      <c r="E28" s="188"/>
+      <c r="F28" s="186"/>
+      <c r="G28" s="187"/>
+      <c r="H28" s="187"/>
+      <c r="I28" s="188"/>
+      <c r="J28" s="223"/>
+      <c r="K28" s="223"/>
+      <c r="L28" s="223"/>
+      <c r="M28" s="223"/>
+      <c r="N28" s="223"/>
+      <c r="O28" s="223"/>
+      <c r="P28" s="223"/>
+      <c r="Q28" s="223"/>
+      <c r="R28" s="223"/>
+      <c r="S28" s="223"/>
+      <c r="T28" s="223"/>
+      <c r="U28" s="223"/>
+      <c r="V28" s="223"/>
+      <c r="W28" s="223"/>
+      <c r="X28" s="223"/>
+      <c r="Y28" s="223"/>
+      <c r="Z28" s="223"/>
+      <c r="AA28" s="223"/>
+      <c r="AB28" s="223"/>
+      <c r="AC28" s="223"/>
+      <c r="AD28" s="223"/>
+      <c r="AE28" s="223"/>
+      <c r="AF28" s="223"/>
+      <c r="AG28" s="223"/>
+      <c r="AH28" s="223"/>
+      <c r="AI28" s="223"/>
+      <c r="AJ28" s="223"/>
+      <c r="AK28" s="224"/>
+    </row>
+    <row r="29" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A29" s="186"/>
+      <c r="B29" s="187"/>
+      <c r="C29" s="187"/>
+      <c r="D29" s="187"/>
+      <c r="E29" s="188"/>
+      <c r="F29" s="186"/>
+      <c r="G29" s="187"/>
+      <c r="H29" s="187"/>
+      <c r="I29" s="188"/>
+      <c r="J29" s="223"/>
+      <c r="K29" s="223"/>
+      <c r="L29" s="223"/>
+      <c r="M29" s="223"/>
+      <c r="N29" s="223"/>
+      <c r="O29" s="223"/>
+      <c r="P29" s="223"/>
+      <c r="Q29" s="223"/>
+      <c r="R29" s="223"/>
+      <c r="S29" s="223"/>
+      <c r="T29" s="223"/>
+      <c r="U29" s="223"/>
+      <c r="V29" s="223"/>
+      <c r="W29" s="223"/>
+      <c r="X29" s="223"/>
+      <c r="Y29" s="223"/>
+      <c r="Z29" s="223"/>
+      <c r="AA29" s="223"/>
+      <c r="AB29" s="223"/>
+      <c r="AC29" s="223"/>
+      <c r="AD29" s="223"/>
+      <c r="AE29" s="223"/>
+      <c r="AF29" s="223"/>
+      <c r="AG29" s="223"/>
+      <c r="AH29" s="223"/>
+      <c r="AI29" s="223"/>
+      <c r="AJ29" s="223"/>
+      <c r="AK29" s="224"/>
+    </row>
+    <row r="30" spans="1:37" ht="10.95" customHeight="1" thickBot="1">
+      <c r="A30" s="225"/>
+      <c r="B30" s="226"/>
+      <c r="C30" s="226"/>
+      <c r="D30" s="226"/>
+      <c r="E30" s="227"/>
+      <c r="F30" s="225"/>
+      <c r="G30" s="226"/>
+      <c r="H30" s="226"/>
+      <c r="I30" s="227"/>
+      <c r="J30" s="228"/>
+      <c r="K30" s="228"/>
+      <c r="L30" s="228"/>
+      <c r="M30" s="228"/>
+      <c r="N30" s="228"/>
+      <c r="O30" s="228"/>
+      <c r="P30" s="228"/>
+      <c r="Q30" s="228"/>
+      <c r="R30" s="228"/>
+      <c r="S30" s="228"/>
+      <c r="T30" s="228"/>
+      <c r="U30" s="228"/>
+      <c r="V30" s="228"/>
+      <c r="W30" s="228"/>
+      <c r="X30" s="228"/>
+      <c r="Y30" s="228"/>
+      <c r="Z30" s="228"/>
+      <c r="AA30" s="228"/>
+      <c r="AB30" s="228"/>
+      <c r="AC30" s="228"/>
+      <c r="AD30" s="228"/>
+      <c r="AE30" s="228"/>
+      <c r="AF30" s="228"/>
+      <c r="AG30" s="228"/>
+      <c r="AH30" s="228"/>
+      <c r="AI30" s="228"/>
+      <c r="AJ30" s="228"/>
+      <c r="AK30" s="229"/>
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:AK2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:AK3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:AK4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:AK5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:AK6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:AK7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:AK8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:AK9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:AK10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:AK11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:AK12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:AK13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:AK14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:AK15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:AK16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:AK17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:AK18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:AK19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:AK20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:AK21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:AK22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AK23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AK24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AK25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AK26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AK27"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="J30:AK30"/>
@@ -9573,6 +9533,84 @@
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="J29:AK29"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AK26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AK27"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AK24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AK25"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:AK22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AK23"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:AK20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:AK21"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:AK18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:AK19"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:AK16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:AK17"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:AK14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:AK15"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:AK12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:AK13"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:AK10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:AK11"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:AK8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:AK9"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:AK6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:AK7"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:AK4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:AK5"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:AK2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:AK3"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9581,167 +9619,164 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF99CC"/>
-  </sheetPr>
   <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="133" customWidth="1"/>
-    <col min="2" max="2" width="23.125" style="134" customWidth="1"/>
-    <col min="3" max="5" width="33.875" style="134" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="133"/>
+    <col min="1" max="1" width="4.8984375" style="125" customWidth="1"/>
+    <col min="2" max="2" width="23.09765625" style="126" customWidth="1"/>
+    <col min="3" max="5" width="33.8984375" style="126" customWidth="1"/>
+    <col min="6" max="16384" width="8.69921875" style="125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="143" customFormat="1" ht="12"/>
-    <row r="2" spans="1:11" s="144" customFormat="1" ht="7.5" customHeight="1">
-      <c r="B2" s="145"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-    </row>
-    <row r="3" spans="1:11" s="144" customFormat="1" ht="33.75" customHeight="1">
-      <c r="B3" s="147" t="s">
+    <row r="1" spans="1:11" s="135" customFormat="1" ht="11.4"/>
+    <row r="2" spans="1:11" s="136" customFormat="1" ht="7.5" customHeight="1">
+      <c r="B2" s="137"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+    </row>
+    <row r="3" spans="1:11" s="136" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B3" s="139" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="144" customFormat="1" ht="7.5" customHeight="1">
-      <c r="B4" s="145"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-    </row>
-    <row r="5" spans="1:11" s="144" customFormat="1" ht="21" customHeight="1">
-      <c r="B5" s="148" t="s">
+    <row r="4" spans="1:11" s="136" customFormat="1" ht="7.5" customHeight="1">
+      <c r="B4" s="137"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+    </row>
+    <row r="5" spans="1:11" s="136" customFormat="1" ht="21" customHeight="1">
+      <c r="B5" s="140" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="144" customFormat="1" ht="15" thickBot="1"/>
-    <row r="7" spans="1:11" s="152" customFormat="1" ht="14.25">
-      <c r="A7" s="144"/>
-      <c r="B7" s="149" t="s">
+    <row r="6" spans="1:11" s="136" customFormat="1" thickBot="1"/>
+    <row r="7" spans="1:11" s="144" customFormat="1" ht="14.4">
+      <c r="A7" s="136"/>
+      <c r="B7" s="141" t="s">
         <v>362</v>
       </c>
-      <c r="C7" s="150" t="s">
+      <c r="C7" s="142" t="s">
         <v>361</v>
       </c>
-      <c r="D7" s="150" t="s">
+      <c r="D7" s="142" t="s">
         <v>363</v>
       </c>
-      <c r="E7" s="151" t="s">
+      <c r="E7" s="143" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="152" customFormat="1" ht="50.45" customHeight="1">
-      <c r="A8" s="144"/>
-      <c r="B8" s="170" t="s">
+    <row r="8" spans="1:11" s="144" customFormat="1" ht="50.4" customHeight="1">
+      <c r="A8" s="136"/>
+      <c r="B8" s="162" t="s">
         <v>393</v>
       </c>
-      <c r="C8" s="131" t="s">
+      <c r="C8" s="123" t="s">
         <v>364</v>
       </c>
-      <c r="D8" s="153" t="s">
+      <c r="D8" s="145" t="s">
         <v>365</v>
       </c>
-      <c r="E8" s="132" t="s">
+      <c r="E8" s="124" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="152" customFormat="1" ht="50.45" customHeight="1">
-      <c r="A9" s="144"/>
-      <c r="B9" s="170" t="s">
+    <row r="9" spans="1:11" s="144" customFormat="1" ht="50.4" customHeight="1">
+      <c r="A9" s="136"/>
+      <c r="B9" s="162" t="s">
         <v>394</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="123" t="s">
         <v>364</v>
       </c>
-      <c r="D9" s="161" t="s">
+      <c r="D9" s="153" t="s">
         <v>388</v>
       </c>
-      <c r="E9" s="132" t="s">
+      <c r="E9" s="124" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="152" customFormat="1" ht="50.45" customHeight="1">
-      <c r="A10" s="144"/>
-      <c r="B10" s="170" t="s">
+    <row r="10" spans="1:11" s="144" customFormat="1" ht="50.4" customHeight="1">
+      <c r="A10" s="136"/>
+      <c r="B10" s="162" t="s">
         <v>395</v>
       </c>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="123" t="s">
         <v>364</v>
       </c>
-      <c r="D10" s="161" t="s">
+      <c r="D10" s="153" t="s">
         <v>384</v>
       </c>
-      <c r="E10" s="132" t="s">
+      <c r="E10" s="124" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="152" customFormat="1" ht="50.45" customHeight="1">
-      <c r="A11" s="144"/>
-      <c r="B11" s="170" t="s">
+    <row r="11" spans="1:11" s="144" customFormat="1" ht="50.4" customHeight="1">
+      <c r="A11" s="136"/>
+      <c r="B11" s="162" t="s">
         <v>396</v>
       </c>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="123" t="s">
         <v>364</v>
       </c>
-      <c r="D11" s="161" t="s">
+      <c r="D11" s="153" t="s">
         <v>397</v>
       </c>
-      <c r="E11" s="132" t="s">
+      <c r="E11" s="124" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="152" customFormat="1" ht="15" thickBot="1">
-      <c r="A12" s="144"/>
-      <c r="B12" s="154"/>
-      <c r="C12" s="155"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="156"/>
-    </row>
-    <row r="13" spans="1:11" s="160" customFormat="1">
-      <c r="A13" s="157"/>
-      <c r="B13" s="158"/>
-      <c r="C13" s="159"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="158"/>
-    </row>
-    <row r="14" spans="1:11" s="144" customFormat="1" ht="7.5" customHeight="1">
-      <c r="B14" s="145"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="146"/>
-    </row>
-    <row r="15" spans="1:11" s="144" customFormat="1" ht="21" customHeight="1">
-      <c r="B15" s="148" t="s">
+    <row r="12" spans="1:11" s="144" customFormat="1" thickBot="1">
+      <c r="A12" s="136"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="148"/>
+    </row>
+    <row r="13" spans="1:11" s="152" customFormat="1">
+      <c r="A13" s="149"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="150"/>
+    </row>
+    <row r="14" spans="1:11" s="136" customFormat="1" ht="7.5" customHeight="1">
+      <c r="B14" s="137"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="138"/>
+    </row>
+    <row r="15" spans="1:11" s="136" customFormat="1" ht="21" customHeight="1">
+      <c r="B15" s="140" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="126" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="134" customFormat="1">
-      <c r="A70" s="133"/>
-      <c r="B70" s="134" t="s">
+    <row r="70" spans="1:11" s="126" customFormat="1">
+      <c r="A70" s="125"/>
+      <c r="B70" s="126" t="s">
         <v>355</v>
       </c>
-      <c r="F70" s="133"/>
-      <c r="G70" s="133"/>
-      <c r="H70" s="133"/>
-      <c r="I70" s="133"/>
-      <c r="J70" s="133"/>
-      <c r="K70" s="133"/>
+      <c r="F70" s="125"/>
+      <c r="G70" s="125"/>
+      <c r="H70" s="125"/>
+      <c r="I70" s="125"/>
+      <c r="J70" s="125"/>
+      <c r="K70" s="125"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
@@ -9764,26 +9799,26 @@
   </sheetPr>
   <dimension ref="A1:Y236"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="20.25" style="6" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="6" customWidth="1"/>
-    <col min="6" max="7" width="8.625" style="6"/>
-    <col min="8" max="8" width="23.875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="23.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="8.625" style="6"/>
+    <col min="1" max="1" width="20.19921875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="26.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="6" customWidth="1"/>
+    <col min="6" max="7" width="8.59765625" style="6"/>
+    <col min="8" max="8" width="23.8984375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="23.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="8.59765625" style="6"/>
     <col min="14" max="15" width="8.5" style="6" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="11.25" style="6" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="11.19921875" style="6" customWidth="1" outlineLevel="1"/>
     <col min="17" max="24" width="8.5" style="6" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="8.625" style="6"/>
+    <col min="25" max="25" width="8.59765625" style="6"/>
     <col min="26" max="26" width="14" style="6" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" style="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.625" style="6"/>
+    <col min="28" max="16384" width="8.59765625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -9815,7 +9850,7 @@
       <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="156" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
@@ -9949,7 +9984,7 @@
       <c r="X6" s="11"/>
     </row>
     <row r="7" spans="1:24" s="12" customFormat="1">
-      <c r="A7" s="163" t="s">
+      <c r="A7" s="155" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -9979,10 +10014,10 @@
       <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24" s="12" customFormat="1">
-      <c r="A8" s="163" t="s">
+      <c r="A8" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="154" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="11"/>
@@ -10009,7 +10044,7 @@
       <c r="X8" s="11"/>
     </row>
     <row r="9" spans="1:24" s="12" customFormat="1">
-      <c r="A9" s="163" t="s">
+      <c r="A9" s="155" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="18" t="s">
@@ -10326,7 +10361,7 @@
       <c r="W19" s="23"/>
       <c r="X19" s="23"/>
     </row>
-    <row r="20" spans="1:24" s="21" customFormat="1" ht="63">
+    <row r="20" spans="1:24" s="21" customFormat="1" ht="60">
       <c r="A20" s="24" t="s">
         <v>23</v>
       </c>
@@ -10535,40 +10570,40 @@
       <c r="X26" s="11"/>
     </row>
     <row r="27" spans="1:24" s="12" customFormat="1">
-      <c r="A27" s="225"/>
-      <c r="B27" s="226"/>
-      <c r="C27" s="226"/>
-      <c r="D27" s="226"/>
-      <c r="E27" s="226"/>
-      <c r="F27" s="227"/>
-      <c r="G27" s="224" t="s">
+      <c r="A27" s="238"/>
+      <c r="B27" s="239"/>
+      <c r="C27" s="239"/>
+      <c r="D27" s="239"/>
+      <c r="E27" s="239"/>
+      <c r="F27" s="240"/>
+      <c r="G27" s="230" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="224"/>
-      <c r="I27" s="224" t="s">
+      <c r="H27" s="230"/>
+      <c r="I27" s="230" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="224"/>
-      <c r="K27" s="224"/>
-      <c r="L27" s="224"/>
-      <c r="M27" s="224" t="s">
+      <c r="J27" s="230"/>
+      <c r="K27" s="230"/>
+      <c r="L27" s="230"/>
+      <c r="M27" s="230" t="s">
         <v>31</v>
       </c>
-      <c r="N27" s="224"/>
-      <c r="O27" s="224"/>
-      <c r="P27" s="224" t="s">
+      <c r="N27" s="230"/>
+      <c r="O27" s="230"/>
+      <c r="P27" s="230" t="s">
         <v>32</v>
       </c>
-      <c r="Q27" s="224"/>
-      <c r="R27" s="224"/>
-      <c r="S27" s="224"/>
-      <c r="T27" s="224"/>
-      <c r="U27" s="224"/>
-      <c r="V27" s="224"/>
-      <c r="W27" s="224" t="s">
+      <c r="Q27" s="230"/>
+      <c r="R27" s="230"/>
+      <c r="S27" s="230"/>
+      <c r="T27" s="230"/>
+      <c r="U27" s="230"/>
+      <c r="V27" s="230"/>
+      <c r="W27" s="230" t="s">
         <v>33</v>
       </c>
-      <c r="X27" s="224"/>
+      <c r="X27" s="230"/>
     </row>
     <row r="28" spans="1:24" s="12" customFormat="1">
       <c r="A28" s="17" t="s">
@@ -10644,7 +10679,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:24" s="12" customFormat="1" ht="110.25">
+    <row r="29" spans="1:24" s="12" customFormat="1" ht="90">
       <c r="A29" s="29">
         <v>10</v>
       </c>
@@ -10702,29 +10737,29 @@
     </row>
     <row r="30" spans="1:24" s="12" customFormat="1">
       <c r="A30" s="48"/>
-      <c r="B30" s="135"/>
-      <c r="C30" s="136"/>
-      <c r="D30" s="136"/>
-      <c r="E30" s="135"/>
-      <c r="F30" s="137"/>
-      <c r="G30" s="137"/>
-      <c r="H30" s="137"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="129"/>
       <c r="I30" s="52"/>
-      <c r="J30" s="138"/>
-      <c r="K30" s="137"/>
-      <c r="L30" s="137"/>
-      <c r="M30" s="137"/>
-      <c r="N30" s="137"/>
-      <c r="O30" s="137"/>
-      <c r="P30" s="135"/>
+      <c r="J30" s="130"/>
+      <c r="K30" s="129"/>
+      <c r="L30" s="129"/>
+      <c r="M30" s="129"/>
+      <c r="N30" s="129"/>
+      <c r="O30" s="129"/>
+      <c r="P30" s="127"/>
       <c r="Q30" s="52"/>
-      <c r="R30" s="137"/>
-      <c r="S30" s="137"/>
-      <c r="T30" s="137"/>
-      <c r="U30" s="137"/>
-      <c r="V30" s="137"/>
-      <c r="W30" s="137"/>
-      <c r="X30" s="137"/>
+      <c r="R30" s="129"/>
+      <c r="S30" s="129"/>
+      <c r="T30" s="129"/>
+      <c r="U30" s="129"/>
+      <c r="V30" s="129"/>
+      <c r="W30" s="129"/>
+      <c r="X30" s="129"/>
     </row>
     <row r="31" spans="1:24" s="41" customFormat="1">
       <c r="A31" s="35" t="s">
@@ -10922,10 +10957,10 @@
       <c r="A38" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="165" t="s">
+      <c r="B38" s="157" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="165" t="s">
+      <c r="C38" s="157" t="s">
         <v>70</v>
       </c>
       <c r="D38" s="49"/>
@@ -10951,7 +10986,7 @@
       <c r="X38" s="11"/>
     </row>
     <row r="39" spans="1:24" s="12" customFormat="1">
-      <c r="A39" s="163" t="s">
+      <c r="A39" s="155" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="18" t="s">
@@ -10983,7 +11018,7 @@
       <c r="X39" s="11"/>
     </row>
     <row r="40" spans="1:24" s="12" customFormat="1">
-      <c r="A40" s="163" t="s">
+      <c r="A40" s="155" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="18" t="s">
@@ -11015,7 +11050,7 @@
       <c r="X40" s="11"/>
     </row>
     <row r="41" spans="1:24" s="12" customFormat="1">
-      <c r="A41" s="163" t="s">
+      <c r="A41" s="155" t="s">
         <v>7</v>
       </c>
       <c r="B41" s="18" t="s">
@@ -11337,7 +11372,7 @@
       <c r="W51" s="23"/>
       <c r="X51" s="23"/>
     </row>
-    <row r="52" spans="1:24" s="21" customFormat="1" ht="63">
+    <row r="52" spans="1:24" s="21" customFormat="1" ht="60">
       <c r="A52" s="24" t="s">
         <v>74</v>
       </c>
@@ -11445,7 +11480,7 @@
       <c r="W54" s="23"/>
       <c r="X54" s="23"/>
     </row>
-    <row r="55" spans="1:24" s="21" customFormat="1" ht="110.25">
+    <row r="55" spans="1:24" s="21" customFormat="1" ht="90">
       <c r="A55" s="24" t="s">
         <v>78</v>
       </c>
@@ -11653,42 +11688,42 @@
       <c r="X61" s="11"/>
     </row>
     <row r="62" spans="1:24" s="12" customFormat="1">
-      <c r="A62" s="225" t="s">
+      <c r="A62" s="238" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="226"/>
-      <c r="C62" s="226"/>
-      <c r="D62" s="226"/>
-      <c r="E62" s="226"/>
-      <c r="F62" s="227"/>
-      <c r="G62" s="224" t="s">
+      <c r="B62" s="239"/>
+      <c r="C62" s="239"/>
+      <c r="D62" s="239"/>
+      <c r="E62" s="239"/>
+      <c r="F62" s="240"/>
+      <c r="G62" s="230" t="s">
         <v>29</v>
       </c>
-      <c r="H62" s="224"/>
-      <c r="I62" s="224" t="s">
+      <c r="H62" s="230"/>
+      <c r="I62" s="230" t="s">
         <v>30</v>
       </c>
-      <c r="J62" s="224"/>
-      <c r="K62" s="224"/>
-      <c r="L62" s="224"/>
-      <c r="M62" s="224" t="s">
+      <c r="J62" s="230"/>
+      <c r="K62" s="230"/>
+      <c r="L62" s="230"/>
+      <c r="M62" s="230" t="s">
         <v>31</v>
       </c>
-      <c r="N62" s="224"/>
-      <c r="O62" s="224"/>
-      <c r="P62" s="224" t="s">
+      <c r="N62" s="230"/>
+      <c r="O62" s="230"/>
+      <c r="P62" s="230" t="s">
         <v>32</v>
       </c>
-      <c r="Q62" s="224"/>
-      <c r="R62" s="224"/>
-      <c r="S62" s="224"/>
-      <c r="T62" s="224"/>
-      <c r="U62" s="224"/>
-      <c r="V62" s="224"/>
-      <c r="W62" s="224" t="s">
+      <c r="Q62" s="230"/>
+      <c r="R62" s="230"/>
+      <c r="S62" s="230"/>
+      <c r="T62" s="230"/>
+      <c r="U62" s="230"/>
+      <c r="V62" s="230"/>
+      <c r="W62" s="230" t="s">
         <v>33</v>
       </c>
-      <c r="X62" s="224"/>
+      <c r="X62" s="230"/>
     </row>
     <row r="63" spans="1:24" s="12" customFormat="1">
       <c r="A63" s="17" t="s">
@@ -11764,7 +11799,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:24" s="12" customFormat="1" ht="31.5">
+    <row r="64" spans="1:24" s="12" customFormat="1" ht="30">
       <c r="A64" s="29">
         <v>20</v>
       </c>
@@ -11818,7 +11853,7 @@
       </c>
       <c r="X64" s="32"/>
     </row>
-    <row r="65" spans="1:24" s="12" customFormat="1" ht="16.5">
+    <row r="65" spans="1:24" s="12" customFormat="1" ht="16.2">
       <c r="A65" s="29">
         <v>30</v>
       </c>
@@ -11878,7 +11913,7 @@
       </c>
       <c r="X65" s="32"/>
     </row>
-    <row r="66" spans="1:24" s="71" customFormat="1" ht="112.5">
+    <row r="66" spans="1:24" s="71" customFormat="1" ht="106.8">
       <c r="A66" s="29">
         <v>40</v>
       </c>
@@ -11938,7 +11973,7 @@
       </c>
       <c r="X66" s="32"/>
     </row>
-    <row r="67" spans="1:24" s="12" customFormat="1" ht="31.5">
+    <row r="67" spans="1:24" s="12" customFormat="1" ht="30">
       <c r="A67" s="29">
         <v>50</v>
       </c>
@@ -11994,29 +12029,29 @@
     </row>
     <row r="68" spans="1:24" s="12" customFormat="1">
       <c r="A68" s="48"/>
-      <c r="B68" s="139"/>
-      <c r="C68" s="136"/>
-      <c r="D68" s="136"/>
-      <c r="E68" s="139"/>
-      <c r="F68" s="137"/>
-      <c r="G68" s="137"/>
-      <c r="H68" s="137"/>
-      <c r="I68" s="140"/>
-      <c r="J68" s="141"/>
-      <c r="K68" s="137"/>
-      <c r="L68" s="137"/>
-      <c r="M68" s="137"/>
-      <c r="N68" s="137"/>
-      <c r="O68" s="137"/>
-      <c r="P68" s="135"/>
+      <c r="B68" s="131"/>
+      <c r="C68" s="128"/>
+      <c r="D68" s="128"/>
+      <c r="E68" s="131"/>
+      <c r="F68" s="129"/>
+      <c r="G68" s="129"/>
+      <c r="H68" s="129"/>
+      <c r="I68" s="132"/>
+      <c r="J68" s="133"/>
+      <c r="K68" s="129"/>
+      <c r="L68" s="129"/>
+      <c r="M68" s="129"/>
+      <c r="N68" s="129"/>
+      <c r="O68" s="129"/>
+      <c r="P68" s="127"/>
       <c r="Q68" s="52"/>
-      <c r="R68" s="137"/>
-      <c r="S68" s="137"/>
-      <c r="T68" s="137"/>
-      <c r="U68" s="137"/>
-      <c r="V68" s="137"/>
-      <c r="W68" s="137"/>
-      <c r="X68" s="137"/>
+      <c r="R68" s="129"/>
+      <c r="S68" s="129"/>
+      <c r="T68" s="129"/>
+      <c r="U68" s="129"/>
+      <c r="V68" s="129"/>
+      <c r="W68" s="129"/>
+      <c r="X68" s="129"/>
     </row>
     <row r="69" spans="1:24" s="78" customFormat="1">
       <c r="A69" s="27" t="s">
@@ -12238,7 +12273,7 @@
       <c r="W76" s="48"/>
       <c r="X76" s="48"/>
     </row>
-    <row r="77" spans="1:24" s="12" customFormat="1" ht="18.75">
+    <row r="77" spans="1:24" s="12" customFormat="1" ht="18">
       <c r="A77" s="37" t="s">
         <v>115</v>
       </c>
@@ -12270,11 +12305,11 @@
       <c r="W77" s="81"/>
       <c r="X77" s="81"/>
     </row>
-    <row r="78" spans="1:24" s="12" customFormat="1" ht="18.75">
-      <c r="A78" s="166" t="s">
+    <row r="78" spans="1:24" s="12" customFormat="1" ht="18">
+      <c r="A78" s="158" t="s">
         <v>116</v>
       </c>
-      <c r="B78" s="167" t="s">
+      <c r="B78" s="159" t="s">
         <v>117</v>
       </c>
       <c r="C78" s="18" t="s">
@@ -12303,10 +12338,10 @@
       <c r="X78" s="81"/>
     </row>
     <row r="79" spans="1:24" s="12" customFormat="1" ht="54" customHeight="1">
-      <c r="A79" s="166" t="s">
+      <c r="A79" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="168" t="s">
+      <c r="B79" s="160" t="s">
         <v>370</v>
       </c>
       <c r="C79" s="18" t="s">
@@ -12334,11 +12369,11 @@
       <c r="W79" s="81"/>
       <c r="X79" s="81"/>
     </row>
-    <row r="80" spans="1:24" s="12" customFormat="1" ht="18.75">
-      <c r="A80" s="169" t="s">
+    <row r="80" spans="1:24" s="12" customFormat="1" ht="18">
+      <c r="A80" s="161" t="s">
         <v>120</v>
       </c>
-      <c r="B80" s="167" t="s">
+      <c r="B80" s="159" t="s">
         <v>121</v>
       </c>
       <c r="C80" s="18" t="s">
@@ -12683,7 +12718,7 @@
       <c r="W91" s="23"/>
       <c r="X91" s="23"/>
     </row>
-    <row r="92" spans="1:24" s="21" customFormat="1" ht="63">
+    <row r="92" spans="1:24" s="21" customFormat="1" ht="60">
       <c r="A92" s="24" t="s">
         <v>123</v>
       </c>
@@ -12791,7 +12826,7 @@
       <c r="W94" s="23"/>
       <c r="X94" s="23"/>
     </row>
-    <row r="95" spans="1:24" s="21" customFormat="1" ht="94.5">
+    <row r="95" spans="1:24" s="21" customFormat="1" ht="90">
       <c r="A95" s="24" t="s">
         <v>126</v>
       </c>
@@ -12999,42 +13034,42 @@
       <c r="X101" s="11"/>
     </row>
     <row r="102" spans="1:25" s="12" customFormat="1">
-      <c r="A102" s="225" t="s">
+      <c r="A102" s="238" t="s">
         <v>82</v>
       </c>
-      <c r="B102" s="226"/>
-      <c r="C102" s="226"/>
-      <c r="D102" s="226"/>
-      <c r="E102" s="226"/>
-      <c r="F102" s="227"/>
-      <c r="G102" s="224" t="s">
+      <c r="B102" s="239"/>
+      <c r="C102" s="239"/>
+      <c r="D102" s="239"/>
+      <c r="E102" s="239"/>
+      <c r="F102" s="240"/>
+      <c r="G102" s="230" t="s">
         <v>29</v>
       </c>
-      <c r="H102" s="224"/>
-      <c r="I102" s="224" t="s">
+      <c r="H102" s="230"/>
+      <c r="I102" s="230" t="s">
         <v>30</v>
       </c>
-      <c r="J102" s="224"/>
-      <c r="K102" s="224"/>
-      <c r="L102" s="224"/>
-      <c r="M102" s="224" t="s">
+      <c r="J102" s="230"/>
+      <c r="K102" s="230"/>
+      <c r="L102" s="230"/>
+      <c r="M102" s="230" t="s">
         <v>31</v>
       </c>
-      <c r="N102" s="224"/>
-      <c r="O102" s="224"/>
-      <c r="P102" s="224" t="s">
+      <c r="N102" s="230"/>
+      <c r="O102" s="230"/>
+      <c r="P102" s="230" t="s">
         <v>32</v>
       </c>
-      <c r="Q102" s="224"/>
-      <c r="R102" s="224"/>
-      <c r="S102" s="224"/>
-      <c r="T102" s="224"/>
-      <c r="U102" s="224"/>
-      <c r="V102" s="224"/>
-      <c r="W102" s="224" t="s">
+      <c r="Q102" s="230"/>
+      <c r="R102" s="230"/>
+      <c r="S102" s="230"/>
+      <c r="T102" s="230"/>
+      <c r="U102" s="230"/>
+      <c r="V102" s="230"/>
+      <c r="W102" s="230" t="s">
         <v>33</v>
       </c>
-      <c r="X102" s="224"/>
+      <c r="X102" s="230"/>
     </row>
     <row r="103" spans="1:25" s="82" customFormat="1">
       <c r="A103" s="84" t="s">
@@ -13508,7 +13543,7 @@
       <c r="X110" s="89"/>
       <c r="Y110" s="78"/>
     </row>
-    <row r="111" spans="1:25" s="96" customFormat="1" ht="18.75">
+    <row r="111" spans="1:25" s="96" customFormat="1" ht="18">
       <c r="A111" s="91">
         <v>80</v>
       </c>
@@ -13565,118 +13600,118 @@
       <c r="X111" s="89"/>
       <c r="Y111" s="78"/>
     </row>
-    <row r="112" spans="1:25" s="82" customFormat="1" ht="31.5">
-      <c r="A112" s="85">
+    <row r="112" spans="1:25" s="82" customFormat="1" ht="30">
+      <c r="A112" s="164">
         <v>90</v>
       </c>
-      <c r="B112" s="92" t="s">
+      <c r="B112" s="165" t="s">
         <v>161</v>
       </c>
-      <c r="C112" s="87" t="s">
+      <c r="C112" s="166" t="s">
         <v>162</v>
       </c>
-      <c r="D112" s="88" t="s">
+      <c r="D112" s="166" t="s">
         <v>163</v>
       </c>
-      <c r="E112" s="92" t="s">
+      <c r="E112" s="165" t="s">
         <v>161</v>
       </c>
-      <c r="F112" s="30" t="s">
+      <c r="F112" s="167" t="s">
         <v>100</v>
       </c>
-      <c r="G112" s="30" t="s">
+      <c r="G112" s="167" t="s">
         <v>62</v>
       </c>
-      <c r="H112" s="89" t="s">
+      <c r="H112" s="168" t="s">
         <v>164</v>
       </c>
-      <c r="I112" s="90" t="s">
+      <c r="I112" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="J112" s="90" t="s">
+      <c r="J112" s="169" t="s">
         <v>88</v>
       </c>
-      <c r="K112" s="89"/>
-      <c r="L112" s="89" t="s">
+      <c r="K112" s="168"/>
+      <c r="L112" s="168" t="s">
         <v>133</v>
       </c>
-      <c r="M112" s="89"/>
-      <c r="N112" s="89"/>
-      <c r="O112" s="89"/>
-      <c r="P112" s="92" t="s">
+      <c r="M112" s="168"/>
+      <c r="N112" s="168"/>
+      <c r="O112" s="168"/>
+      <c r="P112" s="165" t="s">
         <v>161</v>
       </c>
-      <c r="Q112" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="R112" s="89">
+      <c r="Q112" s="163" t="s">
+        <v>13</v>
+      </c>
+      <c r="R112" s="168">
         <v>11</v>
       </c>
-      <c r="S112" s="89"/>
-      <c r="T112" s="89"/>
-      <c r="U112" s="89"/>
-      <c r="V112" s="89"/>
-      <c r="W112" s="30" t="s">
+      <c r="S112" s="168"/>
+      <c r="T112" s="168"/>
+      <c r="U112" s="168"/>
+      <c r="V112" s="168"/>
+      <c r="W112" s="167" t="s">
         <v>93</v>
       </c>
-      <c r="X112" s="89"/>
+      <c r="X112" s="168"/>
       <c r="Y112" s="78"/>
     </row>
-    <row r="113" spans="1:25" s="21" customFormat="1" ht="47.25">
-      <c r="A113" s="91">
+    <row r="113" spans="1:25" s="21" customFormat="1" ht="45">
+      <c r="A113" s="164">
         <v>100</v>
       </c>
-      <c r="B113" s="92" t="s">
+      <c r="B113" s="165" t="s">
         <v>165</v>
       </c>
-      <c r="C113" s="87" t="s">
+      <c r="C113" s="166" t="s">
         <v>166</v>
       </c>
-      <c r="D113" s="88" t="s">
+      <c r="D113" s="166" t="s">
         <v>167</v>
       </c>
-      <c r="E113" s="92" t="s">
+      <c r="E113" s="165" t="s">
         <v>165</v>
       </c>
-      <c r="F113" s="30" t="s">
+      <c r="F113" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="G113" s="30" t="s">
+      <c r="G113" s="167" t="s">
         <v>62</v>
       </c>
-      <c r="H113" s="89" t="s">
+      <c r="H113" s="168" t="s">
         <v>168</v>
       </c>
-      <c r="I113" s="97" t="s">
+      <c r="I113" s="170" t="s">
         <v>169</v>
       </c>
-      <c r="J113" s="94" t="s">
+      <c r="J113" s="169" t="s">
         <v>170</v>
       </c>
-      <c r="K113" s="98"/>
-      <c r="L113" s="89" t="s">
+      <c r="K113" s="168"/>
+      <c r="L113" s="168" t="s">
         <v>133</v>
       </c>
-      <c r="M113" s="98"/>
-      <c r="N113" s="98"/>
-      <c r="O113" s="98"/>
-      <c r="P113" s="92" t="s">
+      <c r="M113" s="168"/>
+      <c r="N113" s="168"/>
+      <c r="O113" s="168"/>
+      <c r="P113" s="165" t="s">
         <v>165</v>
       </c>
-      <c r="Q113" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="R113" s="89">
+      <c r="Q113" s="163" t="s">
+        <v>99</v>
+      </c>
+      <c r="R113" s="168">
         <v>1</v>
       </c>
-      <c r="S113" s="89"/>
-      <c r="T113" s="98"/>
-      <c r="U113" s="98"/>
-      <c r="V113" s="98"/>
-      <c r="W113" s="30" t="s">
+      <c r="S113" s="168"/>
+      <c r="T113" s="168"/>
+      <c r="U113" s="168"/>
+      <c r="V113" s="168"/>
+      <c r="W113" s="167" t="s">
         <v>93</v>
       </c>
-      <c r="X113" s="89"/>
+      <c r="X113" s="168"/>
       <c r="Y113" s="78"/>
     </row>
     <row r="114" spans="1:25" s="21" customFormat="1">
@@ -13736,7 +13771,7 @@
       <c r="X114" s="89"/>
       <c r="Y114" s="78"/>
     </row>
-    <row r="115" spans="1:25" s="21" customFormat="1" ht="63">
+    <row r="115" spans="1:25" s="21" customFormat="1" ht="60">
       <c r="A115" s="85">
         <v>120</v>
       </c>
@@ -13851,87 +13886,87 @@
       <c r="Y116" s="78"/>
     </row>
     <row r="117" spans="1:25" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A117" s="127">
+      <c r="A117" s="30">
         <v>140</v>
       </c>
-      <c r="B117" s="122" t="s">
+      <c r="B117" s="60" t="s">
         <v>317</v>
       </c>
-      <c r="C117" s="123" t="s">
+      <c r="C117" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="D117" s="123" t="s">
+      <c r="D117" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="E117" s="122" t="s">
+      <c r="E117" s="60" t="s">
         <v>316</v>
       </c>
-      <c r="F117" s="127" t="s">
+      <c r="F117" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="G117" s="127" t="s">
+      <c r="G117" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="H117" s="127" t="s">
+      <c r="H117" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="I117" s="125" t="s">
+      <c r="I117" s="73" t="s">
         <v>322</v>
       </c>
-      <c r="J117" s="126" t="s">
+      <c r="J117" s="74" t="s">
         <v>323</v>
       </c>
-      <c r="K117" s="127"/>
-      <c r="L117" s="127" t="s">
+      <c r="K117" s="30"/>
+      <c r="L117" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="M117" s="127"/>
-      <c r="N117" s="127"/>
-      <c r="O117" s="127"/>
-      <c r="P117" s="122" t="s">
+      <c r="M117" s="30"/>
+      <c r="N117" s="30"/>
+      <c r="O117" s="30"/>
+      <c r="P117" s="60" t="s">
         <v>317</v>
       </c>
-      <c r="Q117" s="121" t="s">
+      <c r="Q117" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="R117" s="127">
+      <c r="R117" s="30">
         <v>3</v>
       </c>
-      <c r="S117" s="127"/>
-      <c r="T117" s="127"/>
-      <c r="U117" s="127"/>
-      <c r="V117" s="127"/>
-      <c r="W117" s="127" t="s">
+      <c r="S117" s="30"/>
+      <c r="T117" s="30"/>
+      <c r="U117" s="30"/>
+      <c r="V117" s="30"/>
+      <c r="W117" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="X117" s="127"/>
+      <c r="X117" s="30"/>
       <c r="Y117" s="78"/>
     </row>
     <row r="118" spans="1:25" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A118" s="135"/>
-      <c r="B118" s="139"/>
-      <c r="C118" s="136"/>
-      <c r="D118" s="136"/>
-      <c r="E118" s="139"/>
-      <c r="F118" s="135"/>
-      <c r="G118" s="135"/>
-      <c r="H118" s="135"/>
-      <c r="I118" s="140"/>
-      <c r="J118" s="141"/>
-      <c r="K118" s="135"/>
-      <c r="L118" s="135"/>
-      <c r="M118" s="135"/>
-      <c r="N118" s="135"/>
-      <c r="O118" s="135"/>
-      <c r="P118" s="139"/>
+      <c r="A118" s="127"/>
+      <c r="B118" s="131"/>
+      <c r="C118" s="128"/>
+      <c r="D118" s="128"/>
+      <c r="E118" s="131"/>
+      <c r="F118" s="127"/>
+      <c r="G118" s="127"/>
+      <c r="H118" s="127"/>
+      <c r="I118" s="132"/>
+      <c r="J118" s="133"/>
+      <c r="K118" s="127"/>
+      <c r="L118" s="127"/>
+      <c r="M118" s="127"/>
+      <c r="N118" s="127"/>
+      <c r="O118" s="127"/>
+      <c r="P118" s="131"/>
       <c r="Q118" s="52"/>
-      <c r="R118" s="135"/>
-      <c r="S118" s="135"/>
-      <c r="T118" s="135"/>
-      <c r="U118" s="135"/>
-      <c r="V118" s="135"/>
-      <c r="W118" s="135"/>
-      <c r="X118" s="135"/>
+      <c r="R118" s="127"/>
+      <c r="S118" s="127"/>
+      <c r="T118" s="127"/>
+      <c r="U118" s="127"/>
+      <c r="V118" s="127"/>
+      <c r="W118" s="127"/>
+      <c r="X118" s="127"/>
       <c r="Y118" s="78"/>
     </row>
     <row r="119" spans="1:25" s="78" customFormat="1">
@@ -14183,7 +14218,7 @@
       <c r="X127" s="3"/>
     </row>
     <row r="128" spans="1:25">
-      <c r="A128" s="164" t="s">
+      <c r="A128" s="156" t="s">
         <v>4</v>
       </c>
       <c r="B128" s="114" t="s">
@@ -14213,7 +14248,7 @@
       <c r="X128" s="3"/>
     </row>
     <row r="129" spans="1:24" ht="15" customHeight="1">
-      <c r="A129" s="164" t="s">
+      <c r="A129" s="156" t="s">
         <v>5</v>
       </c>
       <c r="B129" s="114" t="s">
@@ -14585,7 +14620,7 @@
       <c r="W141" s="23"/>
       <c r="X141" s="23"/>
     </row>
-    <row r="142" spans="1:24" s="21" customFormat="1" ht="63">
+    <row r="142" spans="1:24" s="21" customFormat="1" ht="60">
       <c r="A142" s="24" t="s">
         <v>190</v>
       </c>
@@ -14796,40 +14831,40 @@
       <c r="X148" s="11"/>
     </row>
     <row r="149" spans="1:25">
-      <c r="A149" s="229"/>
-      <c r="B149" s="230"/>
-      <c r="C149" s="230"/>
-      <c r="D149" s="230"/>
-      <c r="E149" s="230"/>
-      <c r="F149" s="231"/>
-      <c r="G149" s="228" t="s">
+      <c r="A149" s="235"/>
+      <c r="B149" s="236"/>
+      <c r="C149" s="236"/>
+      <c r="D149" s="236"/>
+      <c r="E149" s="236"/>
+      <c r="F149" s="237"/>
+      <c r="G149" s="231" t="s">
         <v>29</v>
       </c>
-      <c r="H149" s="228"/>
-      <c r="I149" s="228" t="s">
+      <c r="H149" s="231"/>
+      <c r="I149" s="231" t="s">
         <v>30</v>
       </c>
-      <c r="J149" s="228"/>
-      <c r="K149" s="228"/>
-      <c r="L149" s="228"/>
-      <c r="M149" s="228" t="s">
+      <c r="J149" s="231"/>
+      <c r="K149" s="231"/>
+      <c r="L149" s="231"/>
+      <c r="M149" s="231" t="s">
         <v>31</v>
       </c>
-      <c r="N149" s="228"/>
-      <c r="O149" s="228"/>
-      <c r="P149" s="228" t="s">
+      <c r="N149" s="231"/>
+      <c r="O149" s="231"/>
+      <c r="P149" s="231" t="s">
         <v>32</v>
       </c>
-      <c r="Q149" s="228"/>
-      <c r="R149" s="228"/>
-      <c r="S149" s="228"/>
-      <c r="T149" s="228"/>
-      <c r="U149" s="228"/>
-      <c r="V149" s="228"/>
-      <c r="W149" s="228" t="s">
+      <c r="Q149" s="231"/>
+      <c r="R149" s="231"/>
+      <c r="S149" s="231"/>
+      <c r="T149" s="231"/>
+      <c r="U149" s="231"/>
+      <c r="V149" s="231"/>
+      <c r="W149" s="231" t="s">
         <v>33</v>
       </c>
-      <c r="X149" s="228"/>
+      <c r="X149" s="231"/>
     </row>
     <row r="150" spans="1:25">
       <c r="A150" s="84" t="s">
@@ -15303,7 +15338,7 @@
       <c r="X157" s="105"/>
       <c r="Y157" s="41"/>
     </row>
-    <row r="158" spans="1:25" s="107" customFormat="1" ht="18.75">
+    <row r="158" spans="1:25" s="107" customFormat="1" ht="18">
       <c r="A158" s="29">
         <v>80</v>
       </c>
@@ -15360,7 +15395,7 @@
       <c r="X158" s="105"/>
       <c r="Y158" s="41"/>
     </row>
-    <row r="159" spans="1:25" ht="31.5">
+    <row r="159" spans="1:25" ht="30">
       <c r="A159" s="104">
         <v>90</v>
       </c>
@@ -15417,7 +15452,7 @@
       <c r="X159" s="105"/>
       <c r="Y159" s="41"/>
     </row>
-    <row r="160" spans="1:25" s="12" customFormat="1" ht="47.25">
+    <row r="160" spans="1:25" s="12" customFormat="1" ht="45">
       <c r="A160" s="29">
         <v>100</v>
       </c>
@@ -15672,7 +15707,7 @@
       <c r="A168" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B168" s="162" t="s">
+      <c r="B168" s="154" t="s">
         <v>375</v>
       </c>
       <c r="C168" s="11"/>
@@ -16012,7 +16047,7 @@
       <c r="W179" s="23"/>
       <c r="X179" s="23"/>
     </row>
-    <row r="180" spans="1:24" s="21" customFormat="1" ht="63">
+    <row r="180" spans="1:24" s="21" customFormat="1" ht="60">
       <c r="A180" s="24" t="s">
         <v>195</v>
       </c>
@@ -16221,40 +16256,40 @@
       <c r="X186" s="23"/>
     </row>
     <row r="187" spans="1:24">
-      <c r="A187" s="229"/>
-      <c r="B187" s="230"/>
-      <c r="C187" s="230"/>
-      <c r="D187" s="230"/>
-      <c r="E187" s="230"/>
-      <c r="F187" s="231"/>
-      <c r="G187" s="228" t="s">
+      <c r="A187" s="235"/>
+      <c r="B187" s="236"/>
+      <c r="C187" s="236"/>
+      <c r="D187" s="236"/>
+      <c r="E187" s="236"/>
+      <c r="F187" s="237"/>
+      <c r="G187" s="231" t="s">
         <v>29</v>
       </c>
-      <c r="H187" s="228"/>
-      <c r="I187" s="228" t="s">
+      <c r="H187" s="231"/>
+      <c r="I187" s="231" t="s">
         <v>30</v>
       </c>
-      <c r="J187" s="228"/>
-      <c r="K187" s="228"/>
-      <c r="L187" s="228"/>
-      <c r="M187" s="228" t="s">
+      <c r="J187" s="231"/>
+      <c r="K187" s="231"/>
+      <c r="L187" s="231"/>
+      <c r="M187" s="231" t="s">
         <v>31</v>
       </c>
-      <c r="N187" s="228"/>
-      <c r="O187" s="228"/>
-      <c r="P187" s="228" t="s">
+      <c r="N187" s="231"/>
+      <c r="O187" s="231"/>
+      <c r="P187" s="231" t="s">
         <v>32</v>
       </c>
-      <c r="Q187" s="228"/>
-      <c r="R187" s="228"/>
-      <c r="S187" s="228"/>
-      <c r="T187" s="228"/>
-      <c r="U187" s="228"/>
-      <c r="V187" s="228"/>
-      <c r="W187" s="228" t="s">
+      <c r="Q187" s="231"/>
+      <c r="R187" s="231"/>
+      <c r="S187" s="231"/>
+      <c r="T187" s="231"/>
+      <c r="U187" s="231"/>
+      <c r="V187" s="231"/>
+      <c r="W187" s="231" t="s">
         <v>33</v>
       </c>
-      <c r="X187" s="228"/>
+      <c r="X187" s="231"/>
     </row>
     <row r="188" spans="1:24" s="12" customFormat="1">
       <c r="A188" s="84" t="s">
@@ -16660,9 +16695,9 @@
       <c r="C195" s="9"/>
       <c r="D195" s="54"/>
       <c r="E195" s="102"/>
-      <c r="F195" s="137"/>
-      <c r="G195" s="137"/>
-      <c r="H195" s="142"/>
+      <c r="F195" s="129"/>
+      <c r="G195" s="129"/>
+      <c r="H195" s="134"/>
       <c r="I195" s="48"/>
       <c r="J195" s="48"/>
       <c r="K195" s="102"/>
@@ -17493,34 +17528,34 @@
       <c r="D224" s="233"/>
       <c r="E224" s="233"/>
       <c r="F224" s="234"/>
-      <c r="G224" s="228" t="s">
+      <c r="G224" s="231" t="s">
         <v>29</v>
       </c>
-      <c r="H224" s="228"/>
-      <c r="I224" s="228" t="s">
+      <c r="H224" s="231"/>
+      <c r="I224" s="231" t="s">
         <v>30</v>
       </c>
-      <c r="J224" s="228"/>
-      <c r="K224" s="228"/>
-      <c r="L224" s="228"/>
-      <c r="M224" s="228" t="s">
+      <c r="J224" s="231"/>
+      <c r="K224" s="231"/>
+      <c r="L224" s="231"/>
+      <c r="M224" s="231" t="s">
         <v>31</v>
       </c>
-      <c r="N224" s="228"/>
-      <c r="O224" s="228"/>
-      <c r="P224" s="228" t="s">
+      <c r="N224" s="231"/>
+      <c r="O224" s="231"/>
+      <c r="P224" s="231" t="s">
         <v>32</v>
       </c>
-      <c r="Q224" s="228"/>
-      <c r="R224" s="228"/>
-      <c r="S224" s="228"/>
-      <c r="T224" s="228"/>
-      <c r="U224" s="228"/>
-      <c r="V224" s="228"/>
-      <c r="W224" s="228" t="s">
+      <c r="Q224" s="231"/>
+      <c r="R224" s="231"/>
+      <c r="S224" s="231"/>
+      <c r="T224" s="231"/>
+      <c r="U224" s="231"/>
+      <c r="V224" s="231"/>
+      <c r="W224" s="231" t="s">
         <v>33</v>
       </c>
-      <c r="X224" s="228"/>
+      <c r="X224" s="231"/>
     </row>
     <row r="225" spans="1:24" s="12" customFormat="1">
       <c r="A225" s="84" t="s">
@@ -17828,7 +17863,7 @@
       <c r="E230" s="48"/>
       <c r="F230" s="48"/>
       <c r="G230" s="48"/>
-      <c r="H230" s="142"/>
+      <c r="H230" s="134"/>
       <c r="I230" s="48"/>
       <c r="J230" s="48"/>
       <c r="K230" s="48"/>
@@ -18016,14 +18051,18 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="P102:V102"/>
-    <mergeCell ref="P224:V224"/>
-    <mergeCell ref="P187:V187"/>
-    <mergeCell ref="M149:O149"/>
-    <mergeCell ref="A224:F224"/>
-    <mergeCell ref="G224:H224"/>
-    <mergeCell ref="I224:L224"/>
-    <mergeCell ref="M102:O102"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="W62:X62"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="P62:V62"/>
     <mergeCell ref="W102:X102"/>
     <mergeCell ref="W224:X224"/>
     <mergeCell ref="M224:O224"/>
@@ -18040,18 +18079,14 @@
     <mergeCell ref="M187:O187"/>
     <mergeCell ref="P149:V149"/>
     <mergeCell ref="W149:X149"/>
-    <mergeCell ref="W62:X62"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="P62:V62"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="P102:V102"/>
+    <mergeCell ref="P224:V224"/>
+    <mergeCell ref="P187:V187"/>
+    <mergeCell ref="M149:O149"/>
+    <mergeCell ref="A224:F224"/>
+    <mergeCell ref="G224:H224"/>
+    <mergeCell ref="I224:L224"/>
+    <mergeCell ref="M102:O102"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <hyperlinks>
@@ -18067,28 +18102,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="20.25" style="6" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="6" customWidth="1"/>
-    <col min="6" max="7" width="8.625" style="6"/>
-    <col min="8" max="8" width="23.875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="23.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="8.625" style="6"/>
+    <col min="1" max="1" width="20.19921875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="26.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="6" customWidth="1"/>
+    <col min="6" max="7" width="8.59765625" style="6"/>
+    <col min="8" max="8" width="23.8984375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="23.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="8.59765625" style="6"/>
     <col min="14" max="15" width="8.5" style="6" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="11.25" style="6" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="11.19921875" style="6" customWidth="1" outlineLevel="1"/>
     <col min="17" max="24" width="8.5" style="6" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="8.625" style="6"/>
+    <col min="25" max="25" width="8.59765625" style="6"/>
     <col min="26" max="26" width="14" style="6" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" style="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.625" style="6"/>
+    <col min="28" max="16384" width="8.59765625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -18118,7 +18151,7 @@
       <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="156" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
@@ -18846,34 +18879,34 @@
       <c r="D27" s="233"/>
       <c r="E27" s="233"/>
       <c r="F27" s="234"/>
-      <c r="G27" s="228" t="s">
+      <c r="G27" s="231" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="228"/>
-      <c r="I27" s="228" t="s">
+      <c r="H27" s="231"/>
+      <c r="I27" s="231" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="228"/>
-      <c r="K27" s="228"/>
-      <c r="L27" s="228"/>
-      <c r="M27" s="228" t="s">
+      <c r="J27" s="231"/>
+      <c r="K27" s="231"/>
+      <c r="L27" s="231"/>
+      <c r="M27" s="231" t="s">
         <v>31</v>
       </c>
-      <c r="N27" s="228"/>
-      <c r="O27" s="228"/>
-      <c r="P27" s="228" t="s">
+      <c r="N27" s="231"/>
+      <c r="O27" s="231"/>
+      <c r="P27" s="231" t="s">
         <v>32</v>
       </c>
-      <c r="Q27" s="228"/>
-      <c r="R27" s="228"/>
-      <c r="S27" s="228"/>
-      <c r="T27" s="228"/>
-      <c r="U27" s="228"/>
-      <c r="V27" s="228"/>
-      <c r="W27" s="228" t="s">
+      <c r="Q27" s="231"/>
+      <c r="R27" s="231"/>
+      <c r="S27" s="231"/>
+      <c r="T27" s="231"/>
+      <c r="U27" s="231"/>
+      <c r="V27" s="231"/>
+      <c r="W27" s="231" t="s">
         <v>33</v>
       </c>
-      <c r="X27" s="228"/>
+      <c r="X27" s="231"/>
     </row>
     <row r="28" spans="1:24" s="12" customFormat="1">
       <c r="A28" s="84" t="s">
@@ -19181,7 +19214,7 @@
       <c r="E33" s="48"/>
       <c r="F33" s="48"/>
       <c r="G33" s="48"/>
-      <c r="H33" s="142"/>
+      <c r="H33" s="134"/>
       <c r="I33" s="48"/>
       <c r="J33" s="48"/>
       <c r="K33" s="48"/>
@@ -19416,28 +19449,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="20.25" style="6" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="6" customWidth="1"/>
-    <col min="6" max="7" width="8.625" style="6"/>
-    <col min="8" max="8" width="23.875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="23.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="8.625" style="6"/>
+    <col min="1" max="1" width="20.19921875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="26.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="6" customWidth="1"/>
+    <col min="6" max="7" width="8.59765625" style="6"/>
+    <col min="8" max="8" width="23.8984375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="23.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="8.59765625" style="6"/>
     <col min="14" max="15" width="8.5" style="6" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="11.25" style="6" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="11.19921875" style="6" customWidth="1" outlineLevel="1"/>
     <col min="17" max="24" width="8.5" style="6" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="8.625" style="6"/>
+    <col min="25" max="25" width="8.59765625" style="6"/>
     <col min="26" max="26" width="14" style="6" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" style="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.625" style="6"/>
+    <col min="28" max="16384" width="8.59765625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -19469,7 +19500,7 @@
       <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="156" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
@@ -19636,7 +19667,7 @@
       <c r="A8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="154" t="s">
         <v>379</v>
       </c>
       <c r="C8" s="11"/>
@@ -19666,7 +19697,7 @@
       <c r="A9" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="B9" s="162" t="s">
+      <c r="B9" s="154" t="s">
         <v>300</v>
       </c>
       <c r="C9" s="11"/>
@@ -19978,23 +20009,23 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="1:24" s="12" customFormat="1" ht="78.75">
-      <c r="A20" s="129" t="s">
+    <row r="20" spans="1:24" s="12" customFormat="1" ht="75">
+      <c r="A20" s="121" t="s">
         <v>299</v>
       </c>
-      <c r="B20" s="130" t="s">
+      <c r="B20" s="122" t="s">
         <v>301</v>
       </c>
-      <c r="C20" s="130" t="s">
+      <c r="C20" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="130" t="s">
+      <c r="D20" s="122" t="s">
         <v>80</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="F20" s="130" t="s">
+      <c r="F20" s="122" t="s">
         <v>302</v>
       </c>
       <c r="G20" s="19" t="s">
@@ -20195,34 +20226,34 @@
       <c r="D27" s="233"/>
       <c r="E27" s="233"/>
       <c r="F27" s="234"/>
-      <c r="G27" s="228" t="s">
+      <c r="G27" s="231" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="228"/>
-      <c r="I27" s="228" t="s">
+      <c r="H27" s="231"/>
+      <c r="I27" s="231" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="228"/>
-      <c r="K27" s="228"/>
-      <c r="L27" s="228"/>
-      <c r="M27" s="228" t="s">
+      <c r="J27" s="231"/>
+      <c r="K27" s="231"/>
+      <c r="L27" s="231"/>
+      <c r="M27" s="231" t="s">
         <v>31</v>
       </c>
-      <c r="N27" s="228"/>
-      <c r="O27" s="228"/>
-      <c r="P27" s="228" t="s">
+      <c r="N27" s="231"/>
+      <c r="O27" s="231"/>
+      <c r="P27" s="231" t="s">
         <v>32</v>
       </c>
-      <c r="Q27" s="228"/>
-      <c r="R27" s="228"/>
-      <c r="S27" s="228"/>
-      <c r="T27" s="228"/>
-      <c r="U27" s="228"/>
-      <c r="V27" s="228"/>
-      <c r="W27" s="228" t="s">
+      <c r="Q27" s="231"/>
+      <c r="R27" s="231"/>
+      <c r="S27" s="231"/>
+      <c r="T27" s="231"/>
+      <c r="U27" s="231"/>
+      <c r="V27" s="231"/>
+      <c r="W27" s="231" t="s">
         <v>33</v>
       </c>
-      <c r="X27" s="228"/>
+      <c r="X27" s="231"/>
     </row>
     <row r="28" spans="1:24" s="12" customFormat="1">
       <c r="A28" s="84" t="s">
@@ -20729,33 +20760,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF99CC"/>
-  </sheetPr>
   <dimension ref="A1:X46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="20.25" style="6" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="6" customWidth="1"/>
-    <col min="6" max="7" width="8.625" style="6"/>
-    <col min="8" max="8" width="23.875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="23.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="8.625" style="6"/>
+    <col min="1" max="1" width="20.19921875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="26.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="6" customWidth="1"/>
+    <col min="6" max="7" width="8.59765625" style="6"/>
+    <col min="8" max="8" width="23.8984375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="23.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="8.59765625" style="6"/>
     <col min="14" max="15" width="8.5" style="6" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="11.25" style="6" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="11.19921875" style="6" customWidth="1" outlineLevel="1"/>
     <col min="17" max="24" width="8.5" style="6" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="8.625" style="6"/>
+    <col min="25" max="25" width="8.59765625" style="6"/>
     <col min="26" max="26" width="14" style="6" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" style="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.625" style="6"/>
+    <col min="28" max="16384" width="8.59765625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -20787,7 +20813,7 @@
       <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="156" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
@@ -20954,7 +20980,7 @@
       <c r="A8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="154" t="s">
         <v>383</v>
       </c>
       <c r="C8" s="11"/>
@@ -21298,23 +21324,23 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="1:24" s="12" customFormat="1" ht="78.75">
-      <c r="A20" s="129" t="s">
+    <row r="20" spans="1:24" s="12" customFormat="1" ht="75">
+      <c r="A20" s="121" t="s">
         <v>378</v>
       </c>
-      <c r="B20" s="130" t="s">
+      <c r="B20" s="122" t="s">
         <v>255</v>
       </c>
-      <c r="C20" s="130" t="s">
+      <c r="C20" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="130" t="s">
+      <c r="D20" s="122" t="s">
         <v>127</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="F20" s="130" t="s">
+      <c r="F20" s="122" t="s">
         <v>257</v>
       </c>
       <c r="G20" s="116" t="s">
@@ -21489,34 +21515,34 @@
       <c r="D27" s="233"/>
       <c r="E27" s="233"/>
       <c r="F27" s="234"/>
-      <c r="G27" s="228" t="s">
+      <c r="G27" s="231" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="228"/>
-      <c r="I27" s="228" t="s">
+      <c r="H27" s="231"/>
+      <c r="I27" s="231" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="228"/>
-      <c r="K27" s="228"/>
-      <c r="L27" s="228"/>
-      <c r="M27" s="228" t="s">
+      <c r="J27" s="231"/>
+      <c r="K27" s="231"/>
+      <c r="L27" s="231"/>
+      <c r="M27" s="231" t="s">
         <v>31</v>
       </c>
-      <c r="N27" s="228"/>
-      <c r="O27" s="228"/>
-      <c r="P27" s="228" t="s">
+      <c r="N27" s="231"/>
+      <c r="O27" s="231"/>
+      <c r="P27" s="231" t="s">
         <v>32</v>
       </c>
-      <c r="Q27" s="228"/>
-      <c r="R27" s="228"/>
-      <c r="S27" s="228"/>
-      <c r="T27" s="228"/>
-      <c r="U27" s="228"/>
-      <c r="V27" s="228"/>
-      <c r="W27" s="228" t="s">
+      <c r="Q27" s="231"/>
+      <c r="R27" s="231"/>
+      <c r="S27" s="231"/>
+      <c r="T27" s="231"/>
+      <c r="U27" s="231"/>
+      <c r="V27" s="231"/>
+      <c r="W27" s="231" t="s">
         <v>33</v>
       </c>
-      <c r="X27" s="228"/>
+      <c r="X27" s="231"/>
     </row>
     <row r="28" spans="1:24" s="12" customFormat="1">
       <c r="A28" s="84" t="s">
@@ -21985,228 +22011,228 @@
       <c r="X35" s="104"/>
     </row>
     <row r="36" spans="1:24" s="12" customFormat="1">
-      <c r="A36" s="121">
+      <c r="A36" s="33">
         <v>80</v>
       </c>
-      <c r="B36" s="122" t="s">
+      <c r="B36" s="60" t="s">
         <v>343</v>
       </c>
-      <c r="C36" s="123" t="s">
+      <c r="C36" s="31" t="s">
         <v>335</v>
       </c>
-      <c r="D36" s="123" t="s">
+      <c r="D36" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="E36" s="121" t="s">
+      <c r="E36" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="F36" s="124" t="s">
+      <c r="F36" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="G36" s="124" t="s">
+      <c r="G36" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="124" t="s">
+      <c r="H36" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="I36" s="125" t="s">
+      <c r="I36" s="73" t="s">
         <v>337</v>
       </c>
-      <c r="J36" s="126" t="s">
+      <c r="J36" s="74" t="s">
         <v>340</v>
       </c>
-      <c r="K36" s="127"/>
-      <c r="L36" s="127" t="s">
+      <c r="K36" s="30"/>
+      <c r="L36" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="M36" s="128"/>
-      <c r="N36" s="128"/>
-      <c r="O36" s="128"/>
-      <c r="P36" s="121" t="s">
+      <c r="M36" s="62"/>
+      <c r="N36" s="62"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="33" t="s">
         <v>345</v>
       </c>
-      <c r="Q36" s="121" t="s">
+      <c r="Q36" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="R36" s="124">
+      <c r="R36" s="32">
         <v>1</v>
       </c>
-      <c r="S36" s="128"/>
-      <c r="T36" s="128"/>
-      <c r="U36" s="128"/>
-      <c r="V36" s="128"/>
-      <c r="W36" s="124" t="s">
+      <c r="S36" s="62"/>
+      <c r="T36" s="62"/>
+      <c r="U36" s="62"/>
+      <c r="V36" s="62"/>
+      <c r="W36" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="X36" s="124"/>
+      <c r="X36" s="32"/>
     </row>
     <row r="37" spans="1:24" s="12" customFormat="1">
-      <c r="A37" s="121">
+      <c r="A37" s="33">
         <v>90</v>
       </c>
-      <c r="B37" s="122" t="s">
+      <c r="B37" s="60" t="s">
         <v>331</v>
       </c>
-      <c r="C37" s="123" t="s">
+      <c r="C37" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="D37" s="123" t="s">
+      <c r="D37" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="E37" s="121" t="s">
+      <c r="E37" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="F37" s="124" t="s">
+      <c r="F37" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="124" t="s">
+      <c r="G37" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H37" s="124" t="s">
+      <c r="H37" s="32" t="s">
         <v>328</v>
       </c>
-      <c r="I37" s="125" t="s">
+      <c r="I37" s="73" t="s">
         <v>339</v>
       </c>
-      <c r="J37" s="126" t="s">
+      <c r="J37" s="74" t="s">
         <v>346</v>
       </c>
-      <c r="K37" s="127"/>
-      <c r="L37" s="127" t="s">
+      <c r="K37" s="30"/>
+      <c r="L37" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="M37" s="128"/>
-      <c r="N37" s="128"/>
-      <c r="O37" s="128"/>
-      <c r="P37" s="121" t="s">
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="33" t="s">
         <v>347</v>
       </c>
-      <c r="Q37" s="121" t="s">
+      <c r="Q37" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="R37" s="124">
+      <c r="R37" s="32">
         <v>13</v>
       </c>
-      <c r="S37" s="128"/>
-      <c r="T37" s="128"/>
-      <c r="U37" s="128"/>
-      <c r="V37" s="128"/>
-      <c r="W37" s="124" t="s">
+      <c r="S37" s="62"/>
+      <c r="T37" s="62"/>
+      <c r="U37" s="62"/>
+      <c r="V37" s="62"/>
+      <c r="W37" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="X37" s="124"/>
+      <c r="X37" s="32"/>
     </row>
     <row r="38" spans="1:24" s="12" customFormat="1">
-      <c r="A38" s="121">
+      <c r="A38" s="33">
         <v>100</v>
       </c>
-      <c r="B38" s="122" t="s">
+      <c r="B38" s="60" t="s">
         <v>344</v>
       </c>
-      <c r="C38" s="123" t="s">
+      <c r="C38" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="D38" s="123" t="s">
+      <c r="D38" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="E38" s="121" t="s">
+      <c r="E38" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="F38" s="124" t="s">
+      <c r="F38" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="G38" s="124" t="s">
+      <c r="G38" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H38" s="124" t="s">
+      <c r="H38" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="I38" s="125" t="s">
+      <c r="I38" s="73" t="s">
         <v>338</v>
       </c>
-      <c r="J38" s="126" t="s">
+      <c r="J38" s="74" t="s">
         <v>344</v>
       </c>
-      <c r="K38" s="127"/>
-      <c r="L38" s="127" t="s">
+      <c r="K38" s="30"/>
+      <c r="L38" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="M38" s="128"/>
-      <c r="N38" s="128"/>
-      <c r="O38" s="128"/>
-      <c r="P38" s="121" t="s">
+      <c r="M38" s="62"/>
+      <c r="N38" s="62"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="33" t="s">
         <v>350</v>
       </c>
-      <c r="Q38" s="121" t="s">
+      <c r="Q38" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="R38" s="124">
+      <c r="R38" s="32">
         <v>1</v>
       </c>
-      <c r="S38" s="128"/>
-      <c r="T38" s="128"/>
-      <c r="U38" s="128"/>
-      <c r="V38" s="128"/>
-      <c r="W38" s="124" t="s">
+      <c r="S38" s="62"/>
+      <c r="T38" s="62"/>
+      <c r="U38" s="62"/>
+      <c r="V38" s="62"/>
+      <c r="W38" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="X38" s="124"/>
+      <c r="X38" s="32"/>
     </row>
     <row r="39" spans="1:24" s="12" customFormat="1">
-      <c r="A39" s="121">
+      <c r="A39" s="33">
         <v>110</v>
       </c>
-      <c r="B39" s="122" t="s">
+      <c r="B39" s="60" t="s">
         <v>317</v>
       </c>
-      <c r="C39" s="123" t="s">
+      <c r="C39" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="D39" s="123" t="s">
+      <c r="D39" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="E39" s="121" t="s">
+      <c r="E39" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="F39" s="124" t="s">
+      <c r="F39" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="G39" s="124" t="s">
+      <c r="G39" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H39" s="124" t="s">
+      <c r="H39" s="32" t="s">
         <v>324</v>
       </c>
-      <c r="I39" s="125" t="s">
+      <c r="I39" s="73" t="s">
         <v>322</v>
       </c>
-      <c r="J39" s="126" t="s">
+      <c r="J39" s="74" t="s">
         <v>323</v>
       </c>
-      <c r="K39" s="127"/>
-      <c r="L39" s="127" t="s">
+      <c r="K39" s="30"/>
+      <c r="L39" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="M39" s="128"/>
-      <c r="N39" s="128"/>
-      <c r="O39" s="128"/>
-      <c r="P39" s="121" t="s">
+      <c r="M39" s="62"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="Q39" s="121" t="s">
+      <c r="Q39" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="R39" s="124">
+      <c r="R39" s="32">
         <v>3</v>
       </c>
-      <c r="S39" s="128"/>
-      <c r="T39" s="128"/>
-      <c r="U39" s="128"/>
-      <c r="V39" s="128"/>
-      <c r="W39" s="124" t="s">
+      <c r="S39" s="62"/>
+      <c r="T39" s="62"/>
+      <c r="U39" s="62"/>
+      <c r="V39" s="62"/>
+      <c r="W39" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="X39" s="124"/>
+      <c r="X39" s="32"/>
     </row>
     <row r="40" spans="1:24" s="41" customFormat="1">
       <c r="A40" s="35" t="s">
